--- a/codigo_final_organizado/Aplicaciones/Aplicaciones_puras/Resultados_Electricity_Final/electricity_serie_0_resultados_full.xlsx
+++ b/codigo_final_organizado/Aplicaciones/Aplicaciones_puras/Resultados_Electricity_Final/electricity_serie_0_resultados_full.xlsx
@@ -523,7 +523,7 @@
         <v>2.925520793545424</v>
       </c>
       <c r="K2" t="n">
-        <v>3.480522011333322</v>
+        <v>3.378118867953183</v>
       </c>
     </row>
     <row r="3">
@@ -558,7 +558,7 @@
         <v>2.594210902604413</v>
       </c>
       <c r="K3" t="n">
-        <v>3.442207765867133</v>
+        <v>3.130778146408153</v>
       </c>
     </row>
     <row r="4">
@@ -593,7 +593,7 @@
         <v>1.960757881245542</v>
       </c>
       <c r="K4" t="n">
-        <v>3.832141090971911</v>
+        <v>3.584090938229371</v>
       </c>
     </row>
     <row r="5">
@@ -628,7 +628,7 @@
         <v>1.525057750975637</v>
       </c>
       <c r="K5" t="n">
-        <v>3.886349562396942</v>
+        <v>3.63921249041532</v>
       </c>
     </row>
     <row r="6">
@@ -663,7 +663,7 @@
         <v>1.52716259180392</v>
       </c>
       <c r="K6" t="n">
-        <v>3.872460828709164</v>
+        <v>3.609880350062108</v>
       </c>
     </row>
     <row r="7">
@@ -698,7 +698,7 @@
         <v>2.089103999035299</v>
       </c>
       <c r="K7" t="n">
-        <v>3.971852624363529</v>
+        <v>3.705518894271908</v>
       </c>
     </row>
     <row r="8">
@@ -733,7 +733,7 @@
         <v>1.732208502183915</v>
       </c>
       <c r="K8" t="n">
-        <v>3.980691499321711</v>
+        <v>3.730152199424272</v>
       </c>
     </row>
     <row r="9">
@@ -768,7 +768,7 @@
         <v>1.781945169349529</v>
       </c>
       <c r="K9" t="n">
-        <v>3.929899008117093</v>
+        <v>3.666130060929392</v>
       </c>
     </row>
     <row r="10">
@@ -803,7 +803,7 @@
         <v>1.643567142013495</v>
       </c>
       <c r="K10" t="n">
-        <v>3.928024218634905</v>
+        <v>3.667144009078122</v>
       </c>
     </row>
     <row r="11">
@@ -838,7 +838,7 @@
         <v>1.844681550063179</v>
       </c>
       <c r="K11" t="n">
-        <v>4.0028608077117</v>
+        <v>3.738117578702732</v>
       </c>
     </row>
     <row r="12">
@@ -873,7 +873,7 @@
         <v>1.715717939514911</v>
       </c>
       <c r="K12" t="n">
-        <v>3.896788953222869</v>
+        <v>3.683428767109539</v>
       </c>
     </row>
     <row r="13">
@@ -908,7 +908,7 @@
         <v>1.33706758191068</v>
       </c>
       <c r="K13" t="n">
-        <v>3.619358345788773</v>
+        <v>3.378243987824212</v>
       </c>
     </row>
     <row r="14">
@@ -943,7 +943,7 @@
         <v>5.637124946295703</v>
       </c>
       <c r="K14" t="n">
-        <v>5.064577792196883</v>
+        <v>4.519516751660177</v>
       </c>
     </row>
     <row r="15">
@@ -978,7 +978,7 @@
         <v>13.74946082406465</v>
       </c>
       <c r="K15" t="n">
-        <v>15.64509776757349</v>
+        <v>13.92376511200364</v>
       </c>
     </row>
     <row r="16">
@@ -1013,7 +1013,7 @@
         <v>9.895269065787287</v>
       </c>
       <c r="K16" t="n">
-        <v>8.192832615420228</v>
+        <v>9.685203277971254</v>
       </c>
     </row>
     <row r="17">
@@ -1048,7 +1048,7 @@
         <v>1.6057583227182</v>
       </c>
       <c r="K17" t="n">
-        <v>4.127955298280461</v>
+        <v>3.942145086725423</v>
       </c>
     </row>
     <row r="18">
@@ -1083,7 +1083,7 @@
         <v>2.45521316539933</v>
       </c>
       <c r="K18" t="n">
-        <v>3.610580868546021</v>
+        <v>3.40172745782657</v>
       </c>
     </row>
     <row r="19">
@@ -1118,7 +1118,7 @@
         <v>3.211364490559203</v>
       </c>
       <c r="K19" t="n">
-        <v>3.604950993415729</v>
+        <v>3.565318386833658</v>
       </c>
     </row>
     <row r="20">
@@ -1153,7 +1153,7 @@
         <v>2.660586763748931</v>
       </c>
       <c r="K20" t="n">
-        <v>3.21006181197327</v>
+        <v>3.089110762771786</v>
       </c>
     </row>
     <row r="21">
@@ -1188,7 +1188,7 @@
         <v>2.183669486298967</v>
       </c>
       <c r="K21" t="n">
-        <v>2.919484537864573</v>
+        <v>2.695026445706866</v>
       </c>
     </row>
     <row r="22">
@@ -1223,7 +1223,7 @@
         <v>1.374940234592161</v>
       </c>
       <c r="K22" t="n">
-        <v>3.230936480038492</v>
+        <v>2.95751578239483</v>
       </c>
     </row>
     <row r="23">
@@ -1258,7 +1258,7 @@
         <v>2.029910122480708</v>
       </c>
       <c r="K23" t="n">
-        <v>3.380976227292801</v>
+        <v>3.170131192362806</v>
       </c>
     </row>
     <row r="24">
@@ -1293,7 +1293,7 @@
         <v>2.448133529151313</v>
       </c>
       <c r="K24" t="n">
-        <v>3.474744463472571</v>
+        <v>3.179276765730073</v>
       </c>
     </row>
     <row r="25">
@@ -1328,7 +1328,7 @@
         <v>1.442606730237687</v>
       </c>
       <c r="K25" t="n">
-        <v>3.573628527144211</v>
+        <v>3.333213506255694</v>
       </c>
     </row>
   </sheetData>
@@ -11868,7 +11868,7 @@
         <v>0.16</v>
       </c>
       <c r="C809" t="n">
-        <v>0</v>
+        <v>0.04166666666666666</v>
       </c>
     </row>
     <row r="810">
@@ -11881,7 +11881,7 @@
         <v>0.17</v>
       </c>
       <c r="C810" t="n">
-        <v>0</v>
+        <v>0.04166666666666666</v>
       </c>
     </row>
     <row r="811">
@@ -11894,7 +11894,7 @@
         <v>0.18</v>
       </c>
       <c r="C811" t="n">
-        <v>0</v>
+        <v>0.04166666666666666</v>
       </c>
     </row>
     <row r="812">
@@ -11907,7 +11907,7 @@
         <v>0.19</v>
       </c>
       <c r="C812" t="n">
-        <v>0</v>
+        <v>0.04166666666666666</v>
       </c>
     </row>
     <row r="813">
@@ -11920,7 +11920,7 @@
         <v>0.2</v>
       </c>
       <c r="C813" t="n">
-        <v>0</v>
+        <v>0.04166666666666666</v>
       </c>
     </row>
     <row r="814">
@@ -11933,7 +11933,7 @@
         <v>0.21</v>
       </c>
       <c r="C814" t="n">
-        <v>0</v>
+        <v>0.04166666666666666</v>
       </c>
     </row>
     <row r="815">
@@ -11946,7 +11946,7 @@
         <v>0.22</v>
       </c>
       <c r="C815" t="n">
-        <v>0</v>
+        <v>0.04166666666666666</v>
       </c>
     </row>
     <row r="816">
@@ -12141,7 +12141,7 @@
         <v>0.37</v>
       </c>
       <c r="C830" t="n">
-        <v>0.04166666666666666</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="831">
@@ -12154,7 +12154,7 @@
         <v>0.38</v>
       </c>
       <c r="C831" t="n">
-        <v>0.04166666666666666</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="832">
@@ -12167,7 +12167,7 @@
         <v>0.39</v>
       </c>
       <c r="C832" t="n">
-        <v>0.04166666666666666</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="833">
@@ -12180,7 +12180,7 @@
         <v>0.4</v>
       </c>
       <c r="C833" t="n">
-        <v>0.04166666666666666</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="834">
@@ -12193,7 +12193,7 @@
         <v>0.41</v>
       </c>
       <c r="C834" t="n">
-        <v>0.04166666666666666</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="835">
@@ -12206,7 +12206,7 @@
         <v>0.42</v>
       </c>
       <c r="C835" t="n">
-        <v>0.08333333333333333</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="836">
@@ -12219,7 +12219,7 @@
         <v>0.43</v>
       </c>
       <c r="C836" t="n">
-        <v>0.08333333333333333</v>
+        <v>0.2083333333333333</v>
       </c>
     </row>
     <row r="837">
@@ -12232,7 +12232,7 @@
         <v>0.44</v>
       </c>
       <c r="C837" t="n">
-        <v>0.125</v>
+        <v>0.2083333333333333</v>
       </c>
     </row>
     <row r="838">
@@ -12245,7 +12245,7 @@
         <v>0.45</v>
       </c>
       <c r="C838" t="n">
-        <v>0.125</v>
+        <v>0.2083333333333333</v>
       </c>
     </row>
     <row r="839">
@@ -12258,7 +12258,7 @@
         <v>0.46</v>
       </c>
       <c r="C839" t="n">
-        <v>0.1666666666666667</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="840">
@@ -12271,7 +12271,7 @@
         <v>0.47</v>
       </c>
       <c r="C840" t="n">
-        <v>0.1666666666666667</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="841">
@@ -12284,7 +12284,7 @@
         <v>0.48</v>
       </c>
       <c r="C841" t="n">
-        <v>0.2083333333333333</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="842">
@@ -12297,7 +12297,7 @@
         <v>0.49</v>
       </c>
       <c r="C842" t="n">
-        <v>0.25</v>
+        <v>0.2916666666666667</v>
       </c>
     </row>
     <row r="843">
@@ -12310,7 +12310,7 @@
         <v>0.5</v>
       </c>
       <c r="C843" t="n">
-        <v>0.2916666666666667</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="844">
@@ -12336,7 +12336,7 @@
         <v>0.52</v>
       </c>
       <c r="C845" t="n">
-        <v>0.4166666666666667</v>
+        <v>0.4583333333333333</v>
       </c>
     </row>
     <row r="846">
@@ -12375,7 +12375,7 @@
         <v>0.55</v>
       </c>
       <c r="C848" t="n">
-        <v>0.7916666666666666</v>
+        <v>0.8333333333333334</v>
       </c>
     </row>
     <row r="849">
@@ -12388,7 +12388,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="C849" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.9166666666666666</v>
       </c>
     </row>
     <row r="850">
@@ -12544,7 +12544,7 @@
         <v>0.68</v>
       </c>
       <c r="C861" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.9583333333333334</v>
       </c>
     </row>
     <row r="862">
@@ -12557,7 +12557,7 @@
         <v>0.6900000000000001</v>
       </c>
       <c r="C862" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.9583333333333334</v>
       </c>
     </row>
     <row r="863">
@@ -12570,7 +12570,7 @@
         <v>0.7000000000000001</v>
       </c>
       <c r="C863" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.9583333333333334</v>
       </c>
     </row>
     <row r="864">
@@ -12583,7 +12583,7 @@
         <v>0.7100000000000001</v>
       </c>
       <c r="C864" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.9583333333333334</v>
       </c>
     </row>
     <row r="865">
@@ -12596,7 +12596,7 @@
         <v>0.72</v>
       </c>
       <c r="C865" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.9583333333333334</v>
       </c>
     </row>
     <row r="866">

--- a/codigo_final_organizado/Aplicaciones/Aplicaciones_puras/Resultados_Electricity_Final/electricity_serie_0_resultados_full.xlsx
+++ b/codigo_final_organizado/Aplicaciones/Aplicaciones_puras/Resultados_Electricity_Final/electricity_serie_0_resultados_full.xlsx
@@ -523,7 +523,7 @@
         <v>2.925520793545424</v>
       </c>
       <c r="K2" t="n">
-        <v>3.378118867953183</v>
+        <v>3.758027037470606</v>
       </c>
     </row>
     <row r="3">
@@ -558,7 +558,7 @@
         <v>2.594210902604413</v>
       </c>
       <c r="K3" t="n">
-        <v>3.130778146408153</v>
+        <v>3.423949234137423</v>
       </c>
     </row>
     <row r="4">
@@ -593,7 +593,7 @@
         <v>1.960757881245542</v>
       </c>
       <c r="K4" t="n">
-        <v>3.584090938229371</v>
+        <v>3.749313837658861</v>
       </c>
     </row>
     <row r="5">
@@ -628,7 +628,7 @@
         <v>1.525057750975637</v>
       </c>
       <c r="K5" t="n">
-        <v>3.63921249041532</v>
+        <v>3.79187289159037</v>
       </c>
     </row>
     <row r="6">
@@ -663,7 +663,7 @@
         <v>1.52716259180392</v>
       </c>
       <c r="K6" t="n">
-        <v>3.609880350062108</v>
+        <v>3.796472818008077</v>
       </c>
     </row>
     <row r="7">
@@ -698,7 +698,7 @@
         <v>2.089103999035299</v>
       </c>
       <c r="K7" t="n">
-        <v>3.705518894271908</v>
+        <v>3.88462698097165</v>
       </c>
     </row>
     <row r="8">
@@ -733,7 +733,7 @@
         <v>1.732208502183915</v>
       </c>
       <c r="K8" t="n">
-        <v>3.730152199424272</v>
+        <v>3.875022854871307</v>
       </c>
     </row>
     <row r="9">
@@ -768,7 +768,7 @@
         <v>1.781945169349529</v>
       </c>
       <c r="K9" t="n">
-        <v>3.666130060929392</v>
+        <v>3.842861328867081</v>
       </c>
     </row>
     <row r="10">
@@ -803,7 +803,7 @@
         <v>1.643567142013495</v>
       </c>
       <c r="K10" t="n">
-        <v>3.667144009078122</v>
+        <v>3.838283094437498</v>
       </c>
     </row>
     <row r="11">
@@ -838,7 +838,7 @@
         <v>1.844681550063179</v>
       </c>
       <c r="K11" t="n">
-        <v>3.738117578702732</v>
+        <v>3.907072762435249</v>
       </c>
     </row>
     <row r="12">
@@ -873,7 +873,7 @@
         <v>1.715717939514911</v>
       </c>
       <c r="K12" t="n">
-        <v>3.683428767109539</v>
+        <v>3.865202952844662</v>
       </c>
     </row>
     <row r="13">
@@ -908,7 +908,7 @@
         <v>1.33706758191068</v>
       </c>
       <c r="K13" t="n">
-        <v>3.378243987824212</v>
+        <v>3.621952348279919</v>
       </c>
     </row>
     <row r="14">
@@ -943,7 +943,7 @@
         <v>5.637124946295703</v>
       </c>
       <c r="K14" t="n">
-        <v>4.519516751660177</v>
+        <v>4.364350586382203</v>
       </c>
     </row>
     <row r="15">
@@ -978,7 +978,7 @@
         <v>13.74946082406465</v>
       </c>
       <c r="K15" t="n">
-        <v>13.92376511200364</v>
+        <v>11.18854862243428</v>
       </c>
     </row>
     <row r="16">
@@ -1013,7 +1013,7 @@
         <v>9.895269065787287</v>
       </c>
       <c r="K16" t="n">
-        <v>9.685203277971254</v>
+        <v>12.93301175572414</v>
       </c>
     </row>
     <row r="17">
@@ -1048,7 +1048,7 @@
         <v>1.6057583227182</v>
       </c>
       <c r="K17" t="n">
-        <v>3.942145086725423</v>
+        <v>4.230612849622545</v>
       </c>
     </row>
     <row r="18">
@@ -1083,7 +1083,7 @@
         <v>2.45521316539933</v>
       </c>
       <c r="K18" t="n">
-        <v>3.40172745782657</v>
+        <v>3.593957573726737</v>
       </c>
     </row>
     <row r="19">
@@ -1118,7 +1118,7 @@
         <v>3.211364490559203</v>
       </c>
       <c r="K19" t="n">
-        <v>3.565318386833658</v>
+        <v>3.889728855548245</v>
       </c>
     </row>
     <row r="20">
@@ -1153,7 +1153,7 @@
         <v>2.660586763748931</v>
       </c>
       <c r="K20" t="n">
-        <v>3.089110762771786</v>
+        <v>3.403864253255919</v>
       </c>
     </row>
     <row r="21">
@@ -1188,7 +1188,7 @@
         <v>2.183669486298967</v>
       </c>
       <c r="K21" t="n">
-        <v>2.695026445706866</v>
+        <v>2.96815869810564</v>
       </c>
     </row>
     <row r="22">
@@ -1223,7 +1223,7 @@
         <v>1.374940234592161</v>
       </c>
       <c r="K22" t="n">
-        <v>2.95751578239483</v>
+        <v>3.198703415617933</v>
       </c>
     </row>
     <row r="23">
@@ -1258,7 +1258,7 @@
         <v>2.029910122480708</v>
       </c>
       <c r="K23" t="n">
-        <v>3.170131192362806</v>
+        <v>3.407760641777841</v>
       </c>
     </row>
     <row r="24">
@@ -1293,7 +1293,7 @@
         <v>2.448133529151313</v>
       </c>
       <c r="K24" t="n">
-        <v>3.179276765730073</v>
+        <v>3.456431200976954</v>
       </c>
     </row>
     <row r="25">
@@ -1328,7 +1328,7 @@
         <v>1.442606730237687</v>
       </c>
       <c r="K25" t="n">
-        <v>3.333213506255694</v>
+        <v>3.557904840160039</v>
       </c>
     </row>
   </sheetData>
@@ -11738,7 +11738,7 @@
         <v>0.06</v>
       </c>
       <c r="C799" t="n">
-        <v>0</v>
+        <v>0.04166666666666666</v>
       </c>
     </row>
     <row r="800">
@@ -11751,7 +11751,7 @@
         <v>0.06999999999999999</v>
       </c>
       <c r="C800" t="n">
-        <v>0</v>
+        <v>0.04166666666666666</v>
       </c>
     </row>
     <row r="801">
@@ -11764,7 +11764,7 @@
         <v>0.08</v>
       </c>
       <c r="C801" t="n">
-        <v>0</v>
+        <v>0.04166666666666666</v>
       </c>
     </row>
     <row r="802">
@@ -11777,7 +11777,7 @@
         <v>0.09</v>
       </c>
       <c r="C802" t="n">
-        <v>0</v>
+        <v>0.04166666666666666</v>
       </c>
     </row>
     <row r="803">
@@ -11790,7 +11790,7 @@
         <v>0.09999999999999999</v>
       </c>
       <c r="C803" t="n">
-        <v>0</v>
+        <v>0.04166666666666666</v>
       </c>
     </row>
     <row r="804">
@@ -11803,7 +11803,7 @@
         <v>0.11</v>
       </c>
       <c r="C804" t="n">
-        <v>0</v>
+        <v>0.04166666666666666</v>
       </c>
     </row>
     <row r="805">
@@ -11816,7 +11816,7 @@
         <v>0.12</v>
       </c>
       <c r="C805" t="n">
-        <v>0</v>
+        <v>0.04166666666666666</v>
       </c>
     </row>
     <row r="806">
@@ -11829,7 +11829,7 @@
         <v>0.13</v>
       </c>
       <c r="C806" t="n">
-        <v>0</v>
+        <v>0.04166666666666666</v>
       </c>
     </row>
     <row r="807">
@@ -11842,7 +11842,7 @@
         <v>0.14</v>
       </c>
       <c r="C807" t="n">
-        <v>0</v>
+        <v>0.04166666666666666</v>
       </c>
     </row>
     <row r="808">
@@ -11855,7 +11855,7 @@
         <v>0.15</v>
       </c>
       <c r="C808" t="n">
-        <v>0</v>
+        <v>0.04166666666666666</v>
       </c>
     </row>
     <row r="809">
@@ -12063,7 +12063,7 @@
         <v>0.31</v>
       </c>
       <c r="C824" t="n">
-        <v>0.04166666666666666</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="825">
@@ -12076,7 +12076,7 @@
         <v>0.32</v>
       </c>
       <c r="C825" t="n">
-        <v>0.04166666666666666</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="826">
@@ -12089,7 +12089,7 @@
         <v>0.33</v>
       </c>
       <c r="C826" t="n">
-        <v>0.04166666666666666</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="827">
@@ -12102,7 +12102,7 @@
         <v>0.34</v>
       </c>
       <c r="C827" t="n">
-        <v>0.04166666666666666</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="828">
@@ -12115,7 +12115,7 @@
         <v>0.35</v>
       </c>
       <c r="C828" t="n">
-        <v>0.04166666666666666</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="829">
@@ -12128,7 +12128,7 @@
         <v>0.36</v>
       </c>
       <c r="C829" t="n">
-        <v>0.04166666666666666</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="830">
@@ -12141,7 +12141,7 @@
         <v>0.37</v>
       </c>
       <c r="C830" t="n">
-        <v>0.08333333333333333</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="831">
@@ -12154,7 +12154,7 @@
         <v>0.38</v>
       </c>
       <c r="C831" t="n">
-        <v>0.08333333333333333</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="832">
@@ -12167,7 +12167,7 @@
         <v>0.39</v>
       </c>
       <c r="C832" t="n">
-        <v>0.08333333333333333</v>
+        <v>0.2083333333333333</v>
       </c>
     </row>
     <row r="833">
@@ -12180,7 +12180,7 @@
         <v>0.4</v>
       </c>
       <c r="C833" t="n">
-        <v>0.125</v>
+        <v>0.2083333333333333</v>
       </c>
     </row>
     <row r="834">
@@ -12193,7 +12193,7 @@
         <v>0.41</v>
       </c>
       <c r="C834" t="n">
-        <v>0.125</v>
+        <v>0.2083333333333333</v>
       </c>
     </row>
     <row r="835">
@@ -12206,7 +12206,7 @@
         <v>0.42</v>
       </c>
       <c r="C835" t="n">
-        <v>0.1666666666666667</v>
+        <v>0.2083333333333333</v>
       </c>
     </row>
     <row r="836">
@@ -12284,7 +12284,7 @@
         <v>0.48</v>
       </c>
       <c r="C841" t="n">
-        <v>0.25</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="842">
@@ -12297,7 +12297,7 @@
         <v>0.49</v>
       </c>
       <c r="C842" t="n">
-        <v>0.2916666666666667</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="843">
@@ -12310,7 +12310,7 @@
         <v>0.5</v>
       </c>
       <c r="C843" t="n">
-        <v>0.4166666666666667</v>
+        <v>0.4583333333333333</v>
       </c>
     </row>
     <row r="844">
@@ -12323,7 +12323,7 @@
         <v>0.51</v>
       </c>
       <c r="C844" t="n">
-        <v>0.4166666666666667</v>
+        <v>0.4583333333333333</v>
       </c>
     </row>
     <row r="845">
@@ -12349,7 +12349,7 @@
         <v>0.53</v>
       </c>
       <c r="C846" t="n">
-        <v>0.4583333333333333</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="847">
@@ -12362,7 +12362,7 @@
         <v>0.54</v>
       </c>
       <c r="C847" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.7083333333333334</v>
       </c>
     </row>
     <row r="848">
@@ -12375,7 +12375,7 @@
         <v>0.55</v>
       </c>
       <c r="C848" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.9166666666666666</v>
       </c>
     </row>
     <row r="849">
@@ -12427,7 +12427,7 @@
         <v>0.59</v>
       </c>
       <c r="C852" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.9583333333333334</v>
       </c>
     </row>
     <row r="853">
@@ -12440,7 +12440,7 @@
         <v>0.6</v>
       </c>
       <c r="C853" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.9583333333333334</v>
       </c>
     </row>
     <row r="854">
@@ -12453,7 +12453,7 @@
         <v>0.61</v>
       </c>
       <c r="C854" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.9583333333333334</v>
       </c>
     </row>
     <row r="855">
@@ -12466,7 +12466,7 @@
         <v>0.62</v>
       </c>
       <c r="C855" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.9583333333333334</v>
       </c>
     </row>
     <row r="856">
@@ -12479,7 +12479,7 @@
         <v>0.63</v>
       </c>
       <c r="C856" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.9583333333333334</v>
       </c>
     </row>
     <row r="857">
@@ -12492,7 +12492,7 @@
         <v>0.64</v>
       </c>
       <c r="C857" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.9583333333333334</v>
       </c>
     </row>
     <row r="858">
@@ -12505,7 +12505,7 @@
         <v>0.65</v>
       </c>
       <c r="C858" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.9583333333333334</v>
       </c>
     </row>
     <row r="859">
@@ -12518,7 +12518,7 @@
         <v>0.66</v>
       </c>
       <c r="C859" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.9583333333333334</v>
       </c>
     </row>
     <row r="860">
@@ -12531,7 +12531,7 @@
         <v>0.67</v>
       </c>
       <c r="C860" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.9583333333333334</v>
       </c>
     </row>
     <row r="861">
@@ -12908,7 +12908,7 @@
         <v>0.9600000000000001</v>
       </c>
       <c r="C889" t="n">
-        <v>0.9583333333333334</v>
+        <v>1</v>
       </c>
     </row>
     <row r="890">
@@ -12921,7 +12921,7 @@
         <v>0.97</v>
       </c>
       <c r="C890" t="n">
-        <v>0.9583333333333334</v>
+        <v>1</v>
       </c>
     </row>
     <row r="891">
@@ -12934,7 +12934,7 @@
         <v>0.98</v>
       </c>
       <c r="C891" t="n">
-        <v>0.9583333333333334</v>
+        <v>1</v>
       </c>
     </row>
     <row r="892">
@@ -12947,7 +12947,7 @@
         <v>0.99</v>
       </c>
       <c r="C892" t="n">
-        <v>0.9583333333333334</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/codigo_final_organizado/Aplicaciones/Aplicaciones_puras/Resultados_Electricity_Final/electricity_serie_0_resultados_full.xlsx
+++ b/codigo_final_organizado/Aplicaciones/Aplicaciones_puras/Resultados_Electricity_Final/electricity_serie_0_resultados_full.xlsx
@@ -514,16 +514,16 @@
         <v>4.940678770078736</v>
       </c>
       <c r="H2" t="n">
-        <v>2.439463898958864</v>
+        <v>2.539706860597317</v>
       </c>
       <c r="I2" t="n">
-        <v>1.13453357307861</v>
+        <v>1.153522334547124</v>
       </c>
       <c r="J2" t="n">
         <v>2.925520793545424</v>
       </c>
       <c r="K2" t="n">
-        <v>3.758027037470606</v>
+        <v>2.032902704351438</v>
       </c>
     </row>
     <row r="3">
@@ -549,16 +549,16 @@
         <v>1.212355103492718</v>
       </c>
       <c r="H3" t="n">
-        <v>1.609263373036088</v>
+        <v>1.723936055715267</v>
       </c>
       <c r="I3" t="n">
-        <v>2.777670588387509</v>
+        <v>2.870361813818601</v>
       </c>
       <c r="J3" t="n">
         <v>2.594210902604413</v>
       </c>
       <c r="K3" t="n">
-        <v>3.423949234137423</v>
+        <v>2.230793648659107</v>
       </c>
     </row>
     <row r="4">
@@ -584,16 +584,16 @@
         <v>1.075063255536551</v>
       </c>
       <c r="H4" t="n">
-        <v>0.936256928028308</v>
+        <v>0.9813737097427514</v>
       </c>
       <c r="I4" t="n">
-        <v>2.346951978965341</v>
+        <v>2.365721022510591</v>
       </c>
       <c r="J4" t="n">
         <v>1.960757881245542</v>
       </c>
       <c r="K4" t="n">
-        <v>3.749313837658861</v>
+        <v>1.93969075190823</v>
       </c>
     </row>
     <row r="5">
@@ -619,16 +619,16 @@
         <v>1.210893091312481</v>
       </c>
       <c r="H5" t="n">
-        <v>0.4147329952462832</v>
+        <v>0.3962622329858431</v>
       </c>
       <c r="I5" t="n">
-        <v>1.562693162322377</v>
+        <v>1.573728926239791</v>
       </c>
       <c r="J5" t="n">
         <v>1.525057750975637</v>
       </c>
       <c r="K5" t="n">
-        <v>3.79187289159037</v>
+        <v>1.646847391502495</v>
       </c>
     </row>
     <row r="6">
@@ -654,16 +654,16 @@
         <v>1.209984847847151</v>
       </c>
       <c r="H6" t="n">
-        <v>0.2812311316417956</v>
+        <v>0.2704546474462021</v>
       </c>
       <c r="I6" t="n">
-        <v>0.4579547260402914</v>
+        <v>0.4218539662615082</v>
       </c>
       <c r="J6" t="n">
         <v>1.52716259180392</v>
       </c>
       <c r="K6" t="n">
-        <v>3.796472818008077</v>
+        <v>1.668739007363945</v>
       </c>
     </row>
     <row r="7">
@@ -689,16 +689,16 @@
         <v>1.074203496262546</v>
       </c>
       <c r="H7" t="n">
-        <v>0.6773739302239572</v>
+        <v>0.7118746374206125</v>
       </c>
       <c r="I7" t="n">
-        <v>0.5469403748613275</v>
+        <v>0.4875529574219293</v>
       </c>
       <c r="J7" t="n">
         <v>2.089103999035299</v>
       </c>
       <c r="K7" t="n">
-        <v>3.88462698097165</v>
+        <v>1.788909442203023</v>
       </c>
     </row>
     <row r="8">
@@ -724,16 +724,16 @@
         <v>1.208266822396189</v>
       </c>
       <c r="H8" t="n">
-        <v>0.5878153753438327</v>
+        <v>0.5725211483001713</v>
       </c>
       <c r="I8" t="n">
-        <v>0.5297605179094871</v>
+        <v>0.5427010461423523</v>
       </c>
       <c r="J8" t="n">
         <v>1.732208502183915</v>
       </c>
       <c r="K8" t="n">
-        <v>3.875022854871307</v>
+        <v>1.700551401900429</v>
       </c>
     </row>
     <row r="9">
@@ -759,16 +759,16 @@
         <v>1.207495796356991</v>
       </c>
       <c r="H9" t="n">
-        <v>0.6169792449284839</v>
+        <v>0.5872463367462162</v>
       </c>
       <c r="I9" t="n">
-        <v>0.5521909394528621</v>
+        <v>0.5562344909419679</v>
       </c>
       <c r="J9" t="n">
         <v>1.781945169349529</v>
       </c>
       <c r="K9" t="n">
-        <v>3.842861328867081</v>
+        <v>1.691681735588474</v>
       </c>
     </row>
     <row r="10">
@@ -794,16 +794,16 @@
         <v>1.206807832719729</v>
       </c>
       <c r="H10" t="n">
-        <v>0.267856190133993</v>
+        <v>0.251948138159816</v>
       </c>
       <c r="I10" t="n">
-        <v>0.7033139264613806</v>
+        <v>0.7103763938655518</v>
       </c>
       <c r="J10" t="n">
         <v>1.643567142013495</v>
       </c>
       <c r="K10" t="n">
-        <v>3.838283094437498</v>
+        <v>1.6870531869567</v>
       </c>
     </row>
     <row r="11">
@@ -829,16 +829,16 @@
         <v>1.073400461998491</v>
       </c>
       <c r="H11" t="n">
-        <v>0.7216522089834281</v>
+        <v>0.7250768047332765</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4700404965733114</v>
+        <v>0.4224237154221395</v>
       </c>
       <c r="J11" t="n">
         <v>1.844681550063179</v>
       </c>
       <c r="K11" t="n">
-        <v>3.907072762435249</v>
+        <v>1.7749306112228</v>
       </c>
     </row>
     <row r="12">
@@ -864,16 +864,16 @@
         <v>2.270147657429868</v>
       </c>
       <c r="H12" t="n">
-        <v>1.247997744519431</v>
+        <v>1.310795264053345</v>
       </c>
       <c r="I12" t="n">
-        <v>2.118312759634122</v>
+        <v>2.00894014431761</v>
       </c>
       <c r="J12" t="n">
         <v>1.715717939514911</v>
       </c>
       <c r="K12" t="n">
-        <v>3.865202952844662</v>
+        <v>1.950960876780078</v>
       </c>
     </row>
     <row r="13">
@@ -899,16 +899,16 @@
         <v>3.062716945528508</v>
       </c>
       <c r="H13" t="n">
-        <v>1.875485350667105</v>
+        <v>1.846214690017701</v>
       </c>
       <c r="I13" t="n">
-        <v>2.420190047693435</v>
+        <v>2.430352086146202</v>
       </c>
       <c r="J13" t="n">
         <v>1.33706758191068</v>
       </c>
       <c r="K13" t="n">
-        <v>3.621952348279919</v>
+        <v>1.819000407277076</v>
       </c>
     </row>
     <row r="14">
@@ -934,16 +934,16 @@
         <v>3.905806203603865</v>
       </c>
       <c r="H14" t="n">
-        <v>7.078030745635876</v>
+        <v>7.451492629989364</v>
       </c>
       <c r="I14" t="n">
-        <v>8.568348381273832</v>
+        <v>8.660045220928707</v>
       </c>
       <c r="J14" t="n">
         <v>5.637124946295703</v>
       </c>
       <c r="K14" t="n">
-        <v>4.364350586382203</v>
+        <v>5.734071476362839</v>
       </c>
     </row>
     <row r="15">
@@ -969,16 +969,16 @@
         <v>18.00929787837195</v>
       </c>
       <c r="H15" t="n">
-        <v>14.45499773057187</v>
+        <v>14.80205645998554</v>
       </c>
       <c r="I15" t="n">
-        <v>10.08647400498485</v>
+        <v>10.02674879476327</v>
       </c>
       <c r="J15" t="n">
         <v>13.74946082406465</v>
       </c>
       <c r="K15" t="n">
-        <v>11.18854862243428</v>
+        <v>18.00500237850628</v>
       </c>
     </row>
     <row r="16">
@@ -1004,16 +1004,16 @@
         <v>3.05419614748985</v>
       </c>
       <c r="H16" t="n">
-        <v>4.267951556278318</v>
+        <v>4.417871956641857</v>
       </c>
       <c r="I16" t="n">
-        <v>15.00268633386756</v>
+        <v>15.47137474156478</v>
       </c>
       <c r="J16" t="n">
         <v>9.895269065787287</v>
       </c>
       <c r="K16" t="n">
-        <v>12.93301175572414</v>
+        <v>8.375835186681101</v>
       </c>
     </row>
     <row r="17">
@@ -1039,16 +1039,16 @@
         <v>4.908726407000762</v>
       </c>
       <c r="H17" t="n">
-        <v>1.72016580816025</v>
+        <v>1.704711103051372</v>
       </c>
       <c r="I17" t="n">
-        <v>1.119210015910545</v>
+        <v>1.218110129946754</v>
       </c>
       <c r="J17" t="n">
         <v>1.6057583227182</v>
       </c>
       <c r="K17" t="n">
-        <v>4.230612849622545</v>
+        <v>3.263949372709502</v>
       </c>
     </row>
     <row r="18">
@@ -1074,16 +1074,16 @@
         <v>4.906448829503312</v>
       </c>
       <c r="H18" t="n">
-        <v>1.681076939619016</v>
+        <v>1.72273913025856</v>
       </c>
       <c r="I18" t="n">
-        <v>1.243386806966397</v>
+        <v>1.311463721485095</v>
       </c>
       <c r="J18" t="n">
         <v>2.45521316539933</v>
       </c>
       <c r="K18" t="n">
-        <v>3.593957573726737</v>
+        <v>2.375325059849129</v>
       </c>
     </row>
     <row r="19">
@@ -1109,16 +1109,16 @@
         <v>6.867104908099141</v>
       </c>
       <c r="H19" t="n">
-        <v>3.108589594481467</v>
+        <v>3.011498615762891</v>
       </c>
       <c r="I19" t="n">
-        <v>2.249373817642081</v>
+        <v>2.146897093238744</v>
       </c>
       <c r="J19" t="n">
         <v>3.211364490559203</v>
       </c>
       <c r="K19" t="n">
-        <v>3.889728855548245</v>
+        <v>2.675805090820443</v>
       </c>
     </row>
     <row r="20">
@@ -1144,16 +1144,16 @@
         <v>6.864224774588729</v>
       </c>
       <c r="H20" t="n">
-        <v>2.630380271251143</v>
+        <v>2.755394513261389</v>
       </c>
       <c r="I20" t="n">
-        <v>2.104127008719081</v>
+        <v>2.086743036905924</v>
       </c>
       <c r="J20" t="n">
         <v>2.660586763748931</v>
       </c>
       <c r="K20" t="n">
-        <v>3.403864253255919</v>
+        <v>2.936485144773834</v>
       </c>
     </row>
     <row r="21">
@@ -1179,16 +1179,16 @@
         <v>4.899832795597596</v>
       </c>
       <c r="H21" t="n">
-        <v>0.5813453201627852</v>
+        <v>0.5665686197576254</v>
       </c>
       <c r="I21" t="n">
-        <v>2.720086919060947</v>
+        <v>2.449740384995365</v>
       </c>
       <c r="J21" t="n">
         <v>2.183669486298967</v>
       </c>
       <c r="K21" t="n">
-        <v>2.96815869810564</v>
+        <v>1.869076177355903</v>
       </c>
     </row>
     <row r="22">
@@ -1214,16 +1214,16 @@
         <v>1.616030202044811</v>
       </c>
       <c r="H22" t="n">
-        <v>2.767961302739952</v>
+        <v>2.901349834633621</v>
       </c>
       <c r="I22" t="n">
-        <v>2.347053938856931</v>
+        <v>2.303740687381113</v>
       </c>
       <c r="J22" t="n">
         <v>1.374940234592161</v>
       </c>
       <c r="K22" t="n">
-        <v>3.198703415617933</v>
+        <v>1.395298584892969</v>
       </c>
     </row>
     <row r="23">
@@ -1249,16 +1249,16 @@
         <v>3.040700413117551</v>
       </c>
       <c r="H23" t="n">
-        <v>1.090172378880772</v>
+        <v>1.226069298545284</v>
       </c>
       <c r="I23" t="n">
-        <v>0.8582453531921561</v>
+        <v>0.9386866476530393</v>
       </c>
       <c r="J23" t="n">
         <v>2.029910122480708</v>
       </c>
       <c r="K23" t="n">
-        <v>3.407760641777841</v>
+        <v>1.425312474453537</v>
       </c>
     </row>
     <row r="24">
@@ -1284,16 +1284,16 @@
         <v>1.199475397109882</v>
       </c>
       <c r="H24" t="n">
-        <v>3.343291386746821</v>
+        <v>3.261386633004188</v>
       </c>
       <c r="I24" t="n">
-        <v>2.32258120790041</v>
+        <v>2.346841564524471</v>
       </c>
       <c r="J24" t="n">
         <v>2.448133529151313</v>
       </c>
       <c r="K24" t="n">
-        <v>3.456431200976954</v>
+        <v>1.988700028216392</v>
       </c>
     </row>
     <row r="25">
@@ -1319,16 +1319,16 @@
         <v>2.248012146681598</v>
       </c>
       <c r="H25" t="n">
-        <v>0.885059680128887</v>
+        <v>0.9141754155623406</v>
       </c>
       <c r="I25" t="n">
-        <v>1.31670991137402</v>
+        <v>1.30747945547431</v>
       </c>
       <c r="J25" t="n">
         <v>1.442606730237687</v>
       </c>
       <c r="K25" t="n">
-        <v>3.557904840160039</v>
+        <v>1.508925258103195</v>
       </c>
     </row>
   </sheetData>
@@ -3964,7 +3964,7 @@
         <v>0.02</v>
       </c>
       <c r="C201" t="n">
-        <v>0</v>
+        <v>0.04166666666666666</v>
       </c>
     </row>
     <row r="202">
@@ -4016,7 +4016,7 @@
         <v>0.06</v>
       </c>
       <c r="C205" t="n">
-        <v>0.04166666666666666</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="206">
@@ -4029,7 +4029,7 @@
         <v>0.06999999999999999</v>
       </c>
       <c r="C206" t="n">
-        <v>0.125</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="207">
@@ -4042,7 +4042,7 @@
         <v>0.08</v>
       </c>
       <c r="C207" t="n">
-        <v>0.125</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="208">
@@ -4055,7 +4055,7 @@
         <v>0.09</v>
       </c>
       <c r="C208" t="n">
-        <v>0.125</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="209">
@@ -4107,7 +4107,7 @@
         <v>0.13</v>
       </c>
       <c r="C212" t="n">
-        <v>0.2083333333333333</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="213">
@@ -4237,7 +4237,7 @@
         <v>0.23</v>
       </c>
       <c r="C222" t="n">
-        <v>0.25</v>
+        <v>0.2916666666666667</v>
       </c>
     </row>
     <row r="223">
@@ -4250,7 +4250,7 @@
         <v>0.24</v>
       </c>
       <c r="C223" t="n">
-        <v>0.25</v>
+        <v>0.2916666666666667</v>
       </c>
     </row>
     <row r="224">
@@ -4354,7 +4354,7 @@
         <v>0.32</v>
       </c>
       <c r="C231" t="n">
-        <v>0.2916666666666667</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="232">
@@ -4367,7 +4367,7 @@
         <v>0.33</v>
       </c>
       <c r="C232" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="233">
@@ -4523,7 +4523,7 @@
         <v>0.45</v>
       </c>
       <c r="C244" t="n">
-        <v>0.4583333333333333</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="245">
@@ -4536,7 +4536,7 @@
         <v>0.46</v>
       </c>
       <c r="C245" t="n">
-        <v>0.4583333333333333</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="246">
@@ -4601,7 +4601,7 @@
         <v>0.51</v>
       </c>
       <c r="C250" t="n">
-        <v>0.4583333333333333</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="251">
@@ -4692,7 +4692,7 @@
         <v>0.5800000000000001</v>
       </c>
       <c r="C257" t="n">
-        <v>0.5416666666666666</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="258">
@@ -4874,7 +4874,7 @@
         <v>0.72</v>
       </c>
       <c r="C271" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.5833333333333334</v>
       </c>
     </row>
     <row r="272">
@@ -4887,7 +4887,7 @@
         <v>0.73</v>
       </c>
       <c r="C272" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.625</v>
       </c>
     </row>
     <row r="273">
@@ -4900,7 +4900,7 @@
         <v>0.74</v>
       </c>
       <c r="C273" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.625</v>
       </c>
     </row>
     <row r="274">
@@ -4926,7 +4926,7 @@
         <v>0.76</v>
       </c>
       <c r="C275" t="n">
-        <v>0.7083333333333334</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="276">
@@ -4965,7 +4965,7 @@
         <v>0.79</v>
       </c>
       <c r="C278" t="n">
-        <v>0.7083333333333334</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="279">
@@ -4978,7 +4978,7 @@
         <v>0.8</v>
       </c>
       <c r="C279" t="n">
-        <v>0.7083333333333334</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="280">
@@ -4991,7 +4991,7 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="C280" t="n">
-        <v>0.75</v>
+        <v>0.7916666666666666</v>
       </c>
     </row>
     <row r="281">
@@ -5004,7 +5004,7 @@
         <v>0.8200000000000001</v>
       </c>
       <c r="C281" t="n">
-        <v>0.75</v>
+        <v>0.8333333333333334</v>
       </c>
     </row>
     <row r="282">
@@ -5017,7 +5017,7 @@
         <v>0.8300000000000001</v>
       </c>
       <c r="C282" t="n">
-        <v>0.7916666666666666</v>
+        <v>0.8333333333333334</v>
       </c>
     </row>
     <row r="283">
@@ -5069,7 +5069,7 @@
         <v>0.87</v>
       </c>
       <c r="C286" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.9166666666666666</v>
       </c>
     </row>
     <row r="287">
@@ -6525,7 +6525,7 @@
         <v>0.01</v>
       </c>
       <c r="C398" t="n">
-        <v>0.08333333333333333</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="399">
@@ -6538,7 +6538,7 @@
         <v>0.02</v>
       </c>
       <c r="C399" t="n">
-        <v>0.2083333333333333</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="400">
@@ -6798,7 +6798,7 @@
         <v>0.22</v>
       </c>
       <c r="C419" t="n">
-        <v>0.5</v>
+        <v>0.4583333333333333</v>
       </c>
     </row>
     <row r="420">
@@ -6811,7 +6811,7 @@
         <v>0.23</v>
       </c>
       <c r="C420" t="n">
-        <v>0.5</v>
+        <v>0.4583333333333333</v>
       </c>
     </row>
     <row r="421">
@@ -6824,7 +6824,7 @@
         <v>0.24</v>
       </c>
       <c r="C421" t="n">
-        <v>0.5</v>
+        <v>0.4583333333333333</v>
       </c>
     </row>
     <row r="422">
@@ -6980,7 +6980,7 @@
         <v>0.36</v>
       </c>
       <c r="C433" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.7083333333333334</v>
       </c>
     </row>
     <row r="434">
@@ -7175,7 +7175,7 @@
         <v>0.51</v>
       </c>
       <c r="C448" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.8333333333333334</v>
       </c>
     </row>
     <row r="449">
@@ -7188,7 +7188,7 @@
         <v>0.52</v>
       </c>
       <c r="C449" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="450">
@@ -7591,7 +7591,7 @@
         <v>0.8300000000000001</v>
       </c>
       <c r="C480" t="n">
-        <v>0.9583333333333334</v>
+        <v>0.9166666666666666</v>
       </c>
     </row>
     <row r="481">
@@ -7929,7 +7929,7 @@
         <v>0.09999999999999999</v>
       </c>
       <c r="C506" t="n">
-        <v>0.04166666666666666</v>
+        <v>0</v>
       </c>
     </row>
     <row r="507">
@@ -7942,7 +7942,7 @@
         <v>0.11</v>
       </c>
       <c r="C507" t="n">
-        <v>0.04166666666666666</v>
+        <v>0</v>
       </c>
     </row>
     <row r="508">
@@ -7968,7 +7968,7 @@
         <v>0.13</v>
       </c>
       <c r="C509" t="n">
-        <v>0.04166666666666666</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="510">
@@ -7994,7 +7994,7 @@
         <v>0.15</v>
       </c>
       <c r="C511" t="n">
-        <v>0.08333333333333333</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="512">
@@ -8020,7 +8020,7 @@
         <v>0.17</v>
       </c>
       <c r="C513" t="n">
-        <v>0.2083333333333333</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="514">
@@ -8033,7 +8033,7 @@
         <v>0.18</v>
       </c>
       <c r="C514" t="n">
-        <v>0.2083333333333333</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="515">
@@ -8072,7 +8072,7 @@
         <v>0.21</v>
       </c>
       <c r="C517" t="n">
-        <v>0.2916666666666667</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="518">
@@ -8085,7 +8085,7 @@
         <v>0.22</v>
       </c>
       <c r="C518" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="519">
@@ -8098,7 +8098,7 @@
         <v>0.23</v>
       </c>
       <c r="C519" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.2916666666666667</v>
       </c>
     </row>
     <row r="520">
@@ -8111,7 +8111,7 @@
         <v>0.24</v>
       </c>
       <c r="C520" t="n">
-        <v>0.375</v>
+        <v>0.2916666666666667</v>
       </c>
     </row>
     <row r="521">
@@ -8137,7 +8137,7 @@
         <v>0.26</v>
       </c>
       <c r="C522" t="n">
-        <v>0.375</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="523">
@@ -8150,7 +8150,7 @@
         <v>0.27</v>
       </c>
       <c r="C523" t="n">
-        <v>0.375</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="524">
@@ -8163,7 +8163,7 @@
         <v>0.28</v>
       </c>
       <c r="C524" t="n">
-        <v>0.375</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="525">
@@ -8176,7 +8176,7 @@
         <v>0.29</v>
       </c>
       <c r="C525" t="n">
-        <v>0.375</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="526">
@@ -8189,7 +8189,7 @@
         <v>0.3</v>
       </c>
       <c r="C526" t="n">
-        <v>0.375</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="527">
@@ -8306,7 +8306,7 @@
         <v>0.39</v>
       </c>
       <c r="C535" t="n">
-        <v>0.4166666666666667</v>
+        <v>0.4583333333333333</v>
       </c>
     </row>
     <row r="536">
@@ -8319,7 +8319,7 @@
         <v>0.4</v>
       </c>
       <c r="C536" t="n">
-        <v>0.4166666666666667</v>
+        <v>0.4583333333333333</v>
       </c>
     </row>
     <row r="537">
@@ -8358,7 +8358,7 @@
         <v>0.43</v>
       </c>
       <c r="C539" t="n">
-        <v>0.4583333333333333</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="540">
@@ -8397,7 +8397,7 @@
         <v>0.46</v>
       </c>
       <c r="C542" t="n">
-        <v>0.5416666666666666</v>
+        <v>0.5833333333333334</v>
       </c>
     </row>
     <row r="543">
@@ -8410,7 +8410,7 @@
         <v>0.47</v>
       </c>
       <c r="C543" t="n">
-        <v>0.5416666666666666</v>
+        <v>0.5833333333333334</v>
       </c>
     </row>
     <row r="544">
@@ -8423,7 +8423,7 @@
         <v>0.48</v>
       </c>
       <c r="C544" t="n">
-        <v>0.5416666666666666</v>
+        <v>0.5833333333333334</v>
       </c>
     </row>
     <row r="545">
@@ -8436,7 +8436,7 @@
         <v>0.49</v>
       </c>
       <c r="C545" t="n">
-        <v>0.5416666666666666</v>
+        <v>0.5833333333333334</v>
       </c>
     </row>
     <row r="546">
@@ -8449,7 +8449,7 @@
         <v>0.5</v>
       </c>
       <c r="C546" t="n">
-        <v>0.5416666666666666</v>
+        <v>0.5833333333333334</v>
       </c>
     </row>
     <row r="547">
@@ -8592,7 +8592,7 @@
         <v>0.61</v>
       </c>
       <c r="C557" t="n">
-        <v>0.5833333333333334</v>
+        <v>0.625</v>
       </c>
     </row>
     <row r="558">
@@ -8605,7 +8605,7 @@
         <v>0.62</v>
       </c>
       <c r="C558" t="n">
-        <v>0.5833333333333334</v>
+        <v>0.625</v>
       </c>
     </row>
     <row r="559">
@@ -8618,7 +8618,7 @@
         <v>0.63</v>
       </c>
       <c r="C559" t="n">
-        <v>0.5833333333333334</v>
+        <v>0.625</v>
       </c>
     </row>
     <row r="560">
@@ -8631,7 +8631,7 @@
         <v>0.64</v>
       </c>
       <c r="C560" t="n">
-        <v>0.5833333333333334</v>
+        <v>0.625</v>
       </c>
     </row>
     <row r="561">
@@ -8657,7 +8657,7 @@
         <v>0.66</v>
       </c>
       <c r="C562" t="n">
-        <v>0.625</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="563">
@@ -8787,7 +8787,7 @@
         <v>0.76</v>
       </c>
       <c r="C572" t="n">
-        <v>0.7083333333333334</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="573">
@@ -8800,7 +8800,7 @@
         <v>0.77</v>
       </c>
       <c r="C573" t="n">
-        <v>0.7083333333333334</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="574">
@@ -8813,7 +8813,7 @@
         <v>0.78</v>
       </c>
       <c r="C574" t="n">
-        <v>0.7083333333333334</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="575">
@@ -8826,7 +8826,7 @@
         <v>0.79</v>
       </c>
       <c r="C575" t="n">
-        <v>0.7083333333333334</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="576">
@@ -8852,7 +8852,7 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="C577" t="n">
-        <v>0.75</v>
+        <v>0.7083333333333334</v>
       </c>
     </row>
     <row r="578">
@@ -8865,7 +8865,7 @@
         <v>0.8200000000000001</v>
       </c>
       <c r="C578" t="n">
-        <v>0.75</v>
+        <v>0.7083333333333334</v>
       </c>
     </row>
     <row r="579">
@@ -8878,7 +8878,7 @@
         <v>0.8300000000000001</v>
       </c>
       <c r="C579" t="n">
-        <v>0.75</v>
+        <v>0.7083333333333334</v>
       </c>
     </row>
     <row r="580">
@@ -8891,7 +8891,7 @@
         <v>0.8400000000000001</v>
       </c>
       <c r="C580" t="n">
-        <v>0.75</v>
+        <v>0.7916666666666666</v>
       </c>
     </row>
     <row r="581">
@@ -8904,7 +8904,7 @@
         <v>0.85</v>
       </c>
       <c r="C581" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.7916666666666666</v>
       </c>
     </row>
     <row r="582">
@@ -8917,7 +8917,7 @@
         <v>0.86</v>
       </c>
       <c r="C582" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.7916666666666666</v>
       </c>
     </row>
     <row r="583">
@@ -8930,7 +8930,7 @@
         <v>0.87</v>
       </c>
       <c r="C583" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.7916666666666666</v>
       </c>
     </row>
     <row r="584">
@@ -8943,7 +8943,7 @@
         <v>0.88</v>
       </c>
       <c r="C584" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.7916666666666666</v>
       </c>
     </row>
     <row r="585">
@@ -8956,7 +8956,7 @@
         <v>0.89</v>
       </c>
       <c r="C585" t="n">
-        <v>0.875</v>
+        <v>0.8333333333333334</v>
       </c>
     </row>
     <row r="586">
@@ -9008,7 +9008,7 @@
         <v>0.93</v>
       </c>
       <c r="C589" t="n">
-        <v>0.875</v>
+        <v>0.9166666666666666</v>
       </c>
     </row>
     <row r="590">
@@ -9021,7 +9021,7 @@
         <v>0.9400000000000001</v>
       </c>
       <c r="C590" t="n">
-        <v>0.9583333333333334</v>
+        <v>0.9166666666666666</v>
       </c>
     </row>
     <row r="591">
@@ -9177,7 +9177,7 @@
         <v>0.06999999999999999</v>
       </c>
       <c r="C602" t="n">
-        <v>0.04166666666666666</v>
+        <v>0</v>
       </c>
     </row>
     <row r="603">
@@ -9281,7 +9281,7 @@
         <v>0.15</v>
       </c>
       <c r="C610" t="n">
-        <v>0.08333333333333333</v>
+        <v>0.04166666666666666</v>
       </c>
     </row>
     <row r="611">
@@ -9294,7 +9294,7 @@
         <v>0.16</v>
       </c>
       <c r="C611" t="n">
-        <v>0.08333333333333333</v>
+        <v>0.04166666666666666</v>
       </c>
     </row>
     <row r="612">
@@ -9307,7 +9307,7 @@
         <v>0.17</v>
       </c>
       <c r="C612" t="n">
-        <v>0.08333333333333333</v>
+        <v>0.04166666666666666</v>
       </c>
     </row>
     <row r="613">
@@ -9320,7 +9320,7 @@
         <v>0.18</v>
       </c>
       <c r="C613" t="n">
-        <v>0.1666666666666667</v>
+        <v>0.04166666666666666</v>
       </c>
     </row>
     <row r="614">
@@ -9359,7 +9359,7 @@
         <v>0.21</v>
       </c>
       <c r="C616" t="n">
-        <v>0.25</v>
+        <v>0.2083333333333333</v>
       </c>
     </row>
     <row r="617">
@@ -9372,7 +9372,7 @@
         <v>0.22</v>
       </c>
       <c r="C617" t="n">
-        <v>0.2916666666666667</v>
+        <v>0.2083333333333333</v>
       </c>
     </row>
     <row r="618">
@@ -9385,7 +9385,7 @@
         <v>0.23</v>
       </c>
       <c r="C618" t="n">
-        <v>0.2916666666666667</v>
+        <v>0.2083333333333333</v>
       </c>
     </row>
     <row r="619">
@@ -9398,7 +9398,7 @@
         <v>0.24</v>
       </c>
       <c r="C619" t="n">
-        <v>0.2916666666666667</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="620">
@@ -9411,7 +9411,7 @@
         <v>0.25</v>
       </c>
       <c r="C620" t="n">
-        <v>0.2916666666666667</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="621">
@@ -9437,7 +9437,7 @@
         <v>0.27</v>
       </c>
       <c r="C622" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="623">
@@ -9450,7 +9450,7 @@
         <v>0.28</v>
       </c>
       <c r="C623" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="624">
@@ -9463,7 +9463,7 @@
         <v>0.29</v>
       </c>
       <c r="C624" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="625">
@@ -9489,7 +9489,7 @@
         <v>0.31</v>
       </c>
       <c r="C626" t="n">
-        <v>0.375</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="627">
@@ -9528,7 +9528,7 @@
         <v>0.34</v>
       </c>
       <c r="C629" t="n">
-        <v>0.4583333333333333</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="630">
@@ -9554,7 +9554,7 @@
         <v>0.36</v>
       </c>
       <c r="C631" t="n">
-        <v>0.5</v>
+        <v>0.5416666666666666</v>
       </c>
     </row>
     <row r="632">
@@ -9567,7 +9567,7 @@
         <v>0.37</v>
       </c>
       <c r="C632" t="n">
-        <v>0.5</v>
+        <v>0.5416666666666666</v>
       </c>
     </row>
     <row r="633">
@@ -9580,7 +9580,7 @@
         <v>0.38</v>
       </c>
       <c r="C633" t="n">
-        <v>0.5</v>
+        <v>0.5416666666666666</v>
       </c>
     </row>
     <row r="634">
@@ -9593,7 +9593,7 @@
         <v>0.39</v>
       </c>
       <c r="C634" t="n">
-        <v>0.5</v>
+        <v>0.5416666666666666</v>
       </c>
     </row>
     <row r="635">
@@ -9606,7 +9606,7 @@
         <v>0.4</v>
       </c>
       <c r="C635" t="n">
-        <v>0.5</v>
+        <v>0.5416666666666666</v>
       </c>
     </row>
     <row r="636">
@@ -9619,7 +9619,7 @@
         <v>0.41</v>
       </c>
       <c r="C636" t="n">
-        <v>0.5</v>
+        <v>0.5416666666666666</v>
       </c>
     </row>
     <row r="637">
@@ -9632,7 +9632,7 @@
         <v>0.42</v>
       </c>
       <c r="C637" t="n">
-        <v>0.5</v>
+        <v>0.5416666666666666</v>
       </c>
     </row>
     <row r="638">
@@ -9645,7 +9645,7 @@
         <v>0.43</v>
       </c>
       <c r="C638" t="n">
-        <v>0.5</v>
+        <v>0.5416666666666666</v>
       </c>
     </row>
     <row r="639">
@@ -9658,7 +9658,7 @@
         <v>0.44</v>
       </c>
       <c r="C639" t="n">
-        <v>0.5416666666666666</v>
+        <v>0.5833333333333334</v>
       </c>
     </row>
     <row r="640">
@@ -9671,7 +9671,7 @@
         <v>0.45</v>
       </c>
       <c r="C640" t="n">
-        <v>0.5416666666666666</v>
+        <v>0.5833333333333334</v>
       </c>
     </row>
     <row r="641">
@@ -9684,7 +9684,7 @@
         <v>0.46</v>
       </c>
       <c r="C641" t="n">
-        <v>0.5416666666666666</v>
+        <v>0.5833333333333334</v>
       </c>
     </row>
     <row r="642">
@@ -9697,7 +9697,7 @@
         <v>0.47</v>
       </c>
       <c r="C642" t="n">
-        <v>0.5416666666666666</v>
+        <v>0.5833333333333334</v>
       </c>
     </row>
     <row r="643">
@@ -9710,7 +9710,7 @@
         <v>0.48</v>
       </c>
       <c r="C643" t="n">
-        <v>0.5416666666666666</v>
+        <v>0.5833333333333334</v>
       </c>
     </row>
     <row r="644">
@@ -9866,7 +9866,7 @@
         <v>0.6</v>
       </c>
       <c r="C655" t="n">
-        <v>0.625</v>
+        <v>0.5833333333333334</v>
       </c>
     </row>
     <row r="656">
@@ -9879,7 +9879,7 @@
         <v>0.61</v>
       </c>
       <c r="C656" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.5833333333333334</v>
       </c>
     </row>
     <row r="657">
@@ -9892,7 +9892,7 @@
         <v>0.62</v>
       </c>
       <c r="C657" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.5833333333333334</v>
       </c>
     </row>
     <row r="658">
@@ -9905,7 +9905,7 @@
         <v>0.63</v>
       </c>
       <c r="C658" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.5833333333333334</v>
       </c>
     </row>
     <row r="659">
@@ -9918,7 +9918,7 @@
         <v>0.64</v>
       </c>
       <c r="C659" t="n">
-        <v>0.7083333333333334</v>
+        <v>0.625</v>
       </c>
     </row>
     <row r="660">
@@ -9957,7 +9957,7 @@
         <v>0.67</v>
       </c>
       <c r="C662" t="n">
-        <v>0.7083333333333334</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="663">
@@ -9970,7 +9970,7 @@
         <v>0.68</v>
       </c>
       <c r="C663" t="n">
-        <v>0.7083333333333334</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="664">
@@ -10204,7 +10204,7 @@
         <v>0.86</v>
       </c>
       <c r="C681" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.7916666666666666</v>
       </c>
     </row>
     <row r="682">
@@ -10217,7 +10217,7 @@
         <v>0.87</v>
       </c>
       <c r="C682" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.7916666666666666</v>
       </c>
     </row>
     <row r="683">
@@ -10230,7 +10230,7 @@
         <v>0.88</v>
       </c>
       <c r="C683" t="n">
-        <v>0.875</v>
+        <v>0.7916666666666666</v>
       </c>
     </row>
     <row r="684">
@@ -10243,7 +10243,7 @@
         <v>0.89</v>
       </c>
       <c r="C684" t="n">
-        <v>0.875</v>
+        <v>0.7916666666666666</v>
       </c>
     </row>
     <row r="685">
@@ -10256,7 +10256,7 @@
         <v>0.9</v>
       </c>
       <c r="C685" t="n">
-        <v>0.875</v>
+        <v>0.7916666666666666</v>
       </c>
     </row>
     <row r="686">
@@ -10269,7 +10269,7 @@
         <v>0.91</v>
       </c>
       <c r="C686" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="687">
@@ -10282,7 +10282,7 @@
         <v>0.92</v>
       </c>
       <c r="C687" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="688">
@@ -10295,7 +10295,7 @@
         <v>0.93</v>
       </c>
       <c r="C688" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="689">
@@ -10308,7 +10308,7 @@
         <v>0.9400000000000001</v>
       </c>
       <c r="C689" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="690">
@@ -11959,7 +11959,7 @@
         <v>0.23</v>
       </c>
       <c r="C816" t="n">
-        <v>0.04166666666666666</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="817">
@@ -11972,7 +11972,7 @@
         <v>0.24</v>
       </c>
       <c r="C817" t="n">
-        <v>0.04166666666666666</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="818">
@@ -11985,7 +11985,7 @@
         <v>0.25</v>
       </c>
       <c r="C818" t="n">
-        <v>0.04166666666666666</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="819">
@@ -11998,7 +11998,7 @@
         <v>0.26</v>
       </c>
       <c r="C819" t="n">
-        <v>0.04166666666666666</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="820">
@@ -12011,7 +12011,7 @@
         <v>0.27</v>
       </c>
       <c r="C820" t="n">
-        <v>0.04166666666666666</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="821">
@@ -12024,7 +12024,7 @@
         <v>0.28</v>
       </c>
       <c r="C821" t="n">
-        <v>0.04166666666666666</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="822">
@@ -12037,7 +12037,7 @@
         <v>0.29</v>
       </c>
       <c r="C822" t="n">
-        <v>0.04166666666666666</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="823">
@@ -12050,7 +12050,7 @@
         <v>0.3</v>
       </c>
       <c r="C823" t="n">
-        <v>0.04166666666666666</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="824">
@@ -12063,7 +12063,7 @@
         <v>0.31</v>
       </c>
       <c r="C824" t="n">
-        <v>0.08333333333333333</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="825">
@@ -12076,7 +12076,7 @@
         <v>0.32</v>
       </c>
       <c r="C825" t="n">
-        <v>0.08333333333333333</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="826">
@@ -12089,7 +12089,7 @@
         <v>0.33</v>
       </c>
       <c r="C826" t="n">
-        <v>0.08333333333333333</v>
+        <v>0.2916666666666667</v>
       </c>
     </row>
     <row r="827">
@@ -12102,7 +12102,7 @@
         <v>0.34</v>
       </c>
       <c r="C827" t="n">
-        <v>0.08333333333333333</v>
+        <v>0.2916666666666667</v>
       </c>
     </row>
     <row r="828">
@@ -12115,7 +12115,7 @@
         <v>0.35</v>
       </c>
       <c r="C828" t="n">
-        <v>0.08333333333333333</v>
+        <v>0.2916666666666667</v>
       </c>
     </row>
     <row r="829">
@@ -12128,7 +12128,7 @@
         <v>0.36</v>
       </c>
       <c r="C829" t="n">
-        <v>0.125</v>
+        <v>0.2916666666666667</v>
       </c>
     </row>
     <row r="830">
@@ -12141,7 +12141,7 @@
         <v>0.37</v>
       </c>
       <c r="C830" t="n">
-        <v>0.1666666666666667</v>
+        <v>0.2916666666666667</v>
       </c>
     </row>
     <row r="831">
@@ -12154,7 +12154,7 @@
         <v>0.38</v>
       </c>
       <c r="C831" t="n">
-        <v>0.1666666666666667</v>
+        <v>0.2916666666666667</v>
       </c>
     </row>
     <row r="832">
@@ -12167,7 +12167,7 @@
         <v>0.39</v>
       </c>
       <c r="C832" t="n">
-        <v>0.2083333333333333</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="833">
@@ -12180,7 +12180,7 @@
         <v>0.4</v>
       </c>
       <c r="C833" t="n">
-        <v>0.2083333333333333</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="834">
@@ -12193,7 +12193,7 @@
         <v>0.41</v>
       </c>
       <c r="C834" t="n">
-        <v>0.2083333333333333</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="835">
@@ -12206,7 +12206,7 @@
         <v>0.42</v>
       </c>
       <c r="C835" t="n">
-        <v>0.2083333333333333</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="836">
@@ -12219,7 +12219,7 @@
         <v>0.43</v>
       </c>
       <c r="C836" t="n">
-        <v>0.2083333333333333</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="837">
@@ -12232,7 +12232,7 @@
         <v>0.44</v>
       </c>
       <c r="C837" t="n">
-        <v>0.2083333333333333</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="838">
@@ -12245,7 +12245,7 @@
         <v>0.45</v>
       </c>
       <c r="C838" t="n">
-        <v>0.2083333333333333</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="839">
@@ -12258,7 +12258,7 @@
         <v>0.46</v>
       </c>
       <c r="C839" t="n">
-        <v>0.25</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="840">
@@ -12271,7 +12271,7 @@
         <v>0.47</v>
       </c>
       <c r="C840" t="n">
-        <v>0.25</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="841">
@@ -12284,7 +12284,7 @@
         <v>0.48</v>
       </c>
       <c r="C841" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.4583333333333333</v>
       </c>
     </row>
     <row r="842">
@@ -12297,7 +12297,7 @@
         <v>0.49</v>
       </c>
       <c r="C842" t="n">
-        <v>0.4166666666666667</v>
+        <v>0.4583333333333333</v>
       </c>
     </row>
     <row r="843">
@@ -12310,7 +12310,7 @@
         <v>0.5</v>
       </c>
       <c r="C843" t="n">
-        <v>0.4583333333333333</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="844">
@@ -12323,7 +12323,7 @@
         <v>0.51</v>
       </c>
       <c r="C844" t="n">
-        <v>0.4583333333333333</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="845">
@@ -12336,7 +12336,7 @@
         <v>0.52</v>
       </c>
       <c r="C845" t="n">
-        <v>0.4583333333333333</v>
+        <v>0.5833333333333334</v>
       </c>
     </row>
     <row r="846">
@@ -12349,7 +12349,7 @@
         <v>0.53</v>
       </c>
       <c r="C846" t="n">
-        <v>0.5</v>
+        <v>0.5833333333333334</v>
       </c>
     </row>
     <row r="847">
@@ -12362,7 +12362,7 @@
         <v>0.54</v>
       </c>
       <c r="C847" t="n">
-        <v>0.7083333333333334</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="848">
@@ -12375,7 +12375,7 @@
         <v>0.55</v>
       </c>
       <c r="C848" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="849">
@@ -12388,7 +12388,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="C849" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.7083333333333334</v>
       </c>
     </row>
     <row r="850">
@@ -12401,7 +12401,7 @@
         <v>0.5700000000000001</v>
       </c>
       <c r="C850" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.7083333333333334</v>
       </c>
     </row>
     <row r="851">
@@ -12414,7 +12414,7 @@
         <v>0.5800000000000001</v>
       </c>
       <c r="C851" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="852">
@@ -12427,7 +12427,7 @@
         <v>0.59</v>
       </c>
       <c r="C852" t="n">
-        <v>0.9583333333333334</v>
+        <v>0.7916666666666666</v>
       </c>
     </row>
     <row r="853">
@@ -12440,7 +12440,7 @@
         <v>0.6</v>
       </c>
       <c r="C853" t="n">
-        <v>0.9583333333333334</v>
+        <v>0.7916666666666666</v>
       </c>
     </row>
     <row r="854">
@@ -12453,7 +12453,7 @@
         <v>0.61</v>
       </c>
       <c r="C854" t="n">
-        <v>0.9583333333333334</v>
+        <v>0.7916666666666666</v>
       </c>
     </row>
     <row r="855">
@@ -12466,7 +12466,7 @@
         <v>0.62</v>
       </c>
       <c r="C855" t="n">
-        <v>0.9583333333333334</v>
+        <v>0.7916666666666666</v>
       </c>
     </row>
     <row r="856">
@@ -12479,7 +12479,7 @@
         <v>0.63</v>
       </c>
       <c r="C856" t="n">
-        <v>0.9583333333333334</v>
+        <v>0.7916666666666666</v>
       </c>
     </row>
     <row r="857">
@@ -12492,7 +12492,7 @@
         <v>0.64</v>
       </c>
       <c r="C857" t="n">
-        <v>0.9583333333333334</v>
+        <v>0.7916666666666666</v>
       </c>
     </row>
     <row r="858">
@@ -12505,7 +12505,7 @@
         <v>0.65</v>
       </c>
       <c r="C858" t="n">
-        <v>0.9583333333333334</v>
+        <v>0.7916666666666666</v>
       </c>
     </row>
     <row r="859">
@@ -12518,7 +12518,7 @@
         <v>0.66</v>
       </c>
       <c r="C859" t="n">
-        <v>0.9583333333333334</v>
+        <v>0.8333333333333334</v>
       </c>
     </row>
     <row r="860">
@@ -12531,7 +12531,7 @@
         <v>0.67</v>
       </c>
       <c r="C860" t="n">
-        <v>0.9583333333333334</v>
+        <v>0.8333333333333334</v>
       </c>
     </row>
     <row r="861">
@@ -12544,7 +12544,7 @@
         <v>0.68</v>
       </c>
       <c r="C861" t="n">
-        <v>0.9583333333333334</v>
+        <v>0.8333333333333334</v>
       </c>
     </row>
     <row r="862">
@@ -12557,7 +12557,7 @@
         <v>0.6900000000000001</v>
       </c>
       <c r="C862" t="n">
-        <v>0.9583333333333334</v>
+        <v>0.8333333333333334</v>
       </c>
     </row>
     <row r="863">
@@ -12570,7 +12570,7 @@
         <v>0.7000000000000001</v>
       </c>
       <c r="C863" t="n">
-        <v>0.9583333333333334</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="864">
@@ -12583,7 +12583,7 @@
         <v>0.7100000000000001</v>
       </c>
       <c r="C864" t="n">
-        <v>0.9583333333333334</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="865">
@@ -12596,7 +12596,7 @@
         <v>0.72</v>
       </c>
       <c r="C865" t="n">
-        <v>0.9583333333333334</v>
+        <v>0.9166666666666666</v>
       </c>
     </row>
     <row r="866">
@@ -12609,7 +12609,7 @@
         <v>0.73</v>
       </c>
       <c r="C866" t="n">
-        <v>0.9583333333333334</v>
+        <v>0.9166666666666666</v>
       </c>
     </row>
     <row r="867">
@@ -12622,7 +12622,7 @@
         <v>0.74</v>
       </c>
       <c r="C867" t="n">
-        <v>0.9583333333333334</v>
+        <v>0.9166666666666666</v>
       </c>
     </row>
     <row r="868">
@@ -12635,7 +12635,7 @@
         <v>0.75</v>
       </c>
       <c r="C868" t="n">
-        <v>0.9583333333333334</v>
+        <v>0.9166666666666666</v>
       </c>
     </row>
     <row r="869">
@@ -12648,7 +12648,7 @@
         <v>0.76</v>
       </c>
       <c r="C869" t="n">
-        <v>0.9583333333333334</v>
+        <v>0.9166666666666666</v>
       </c>
     </row>
     <row r="870">
@@ -12661,7 +12661,7 @@
         <v>0.77</v>
       </c>
       <c r="C870" t="n">
-        <v>0.9583333333333334</v>
+        <v>0.9166666666666666</v>
       </c>
     </row>
     <row r="871">
@@ -12674,7 +12674,7 @@
         <v>0.78</v>
       </c>
       <c r="C871" t="n">
-        <v>0.9583333333333334</v>
+        <v>0.9166666666666666</v>
       </c>
     </row>
     <row r="872">
@@ -12687,7 +12687,7 @@
         <v>0.79</v>
       </c>
       <c r="C872" t="n">
-        <v>0.9583333333333334</v>
+        <v>0.9166666666666666</v>
       </c>
     </row>
     <row r="873">
@@ -12700,7 +12700,7 @@
         <v>0.8</v>
       </c>
       <c r="C873" t="n">
-        <v>0.9583333333333334</v>
+        <v>0.9166666666666666</v>
       </c>
     </row>
     <row r="874">
@@ -12713,7 +12713,7 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="C874" t="n">
-        <v>0.9583333333333334</v>
+        <v>0.9166666666666666</v>
       </c>
     </row>
     <row r="875">
@@ -12726,7 +12726,7 @@
         <v>0.8200000000000001</v>
       </c>
       <c r="C875" t="n">
-        <v>0.9583333333333334</v>
+        <v>0.9166666666666666</v>
       </c>
     </row>
     <row r="876">
@@ -12739,7 +12739,7 @@
         <v>0.8300000000000001</v>
       </c>
       <c r="C876" t="n">
-        <v>0.9583333333333334</v>
+        <v>0.9166666666666666</v>
       </c>
     </row>
     <row r="877">
@@ -12752,7 +12752,7 @@
         <v>0.8400000000000001</v>
       </c>
       <c r="C877" t="n">
-        <v>0.9583333333333334</v>
+        <v>0.9166666666666666</v>
       </c>
     </row>
     <row r="878">
@@ -12765,7 +12765,7 @@
         <v>0.85</v>
       </c>
       <c r="C878" t="n">
-        <v>0.9583333333333334</v>
+        <v>0.9166666666666666</v>
       </c>
     </row>
     <row r="879">
@@ -12778,7 +12778,7 @@
         <v>0.86</v>
       </c>
       <c r="C879" t="n">
-        <v>0.9583333333333334</v>
+        <v>0.9166666666666666</v>
       </c>
     </row>
     <row r="880">
@@ -12791,7 +12791,7 @@
         <v>0.87</v>
       </c>
       <c r="C880" t="n">
-        <v>0.9583333333333334</v>
+        <v>0.9166666666666666</v>
       </c>
     </row>
     <row r="881">
@@ -12804,7 +12804,7 @@
         <v>0.88</v>
       </c>
       <c r="C881" t="n">
-        <v>0.9583333333333334</v>
+        <v>0.9166666666666666</v>
       </c>
     </row>
     <row r="882">
@@ -12817,7 +12817,7 @@
         <v>0.89</v>
       </c>
       <c r="C882" t="n">
-        <v>0.9583333333333334</v>
+        <v>0.9166666666666666</v>
       </c>
     </row>
     <row r="883">
@@ -12908,7 +12908,7 @@
         <v>0.9600000000000001</v>
       </c>
       <c r="C889" t="n">
-        <v>1</v>
+        <v>0.9583333333333334</v>
       </c>
     </row>
     <row r="890">
@@ -12921,7 +12921,7 @@
         <v>0.97</v>
       </c>
       <c r="C890" t="n">
-        <v>1</v>
+        <v>0.9583333333333334</v>
       </c>
     </row>
     <row r="891">
@@ -12934,7 +12934,7 @@
         <v>0.98</v>
       </c>
       <c r="C891" t="n">
-        <v>1</v>
+        <v>0.9583333333333334</v>
       </c>
     </row>
     <row r="892">
@@ -12947,7 +12947,7 @@
         <v>0.99</v>
       </c>
       <c r="C892" t="n">
-        <v>1</v>
+        <v>0.9583333333333334</v>
       </c>
     </row>
   </sheetData>

--- a/codigo_final_organizado/Aplicaciones/Aplicaciones_puras/Resultados_Electricity_Final/electricity_serie_0_resultados_full.xlsx
+++ b/codigo_final_organizado/Aplicaciones/Aplicaciones_puras/Resultados_Electricity_Final/electricity_serie_0_resultados_full.xlsx
@@ -508,7 +508,7 @@
         <v>0.9089724895519442</v>
       </c>
       <c r="F2" t="n">
-        <v>0.742089424612141</v>
+        <v>1.094843486897785</v>
       </c>
       <c r="G2" t="n">
         <v>4.940678770078736</v>
@@ -523,7 +523,7 @@
         <v>2.925520793545424</v>
       </c>
       <c r="K2" t="n">
-        <v>2.032902704351438</v>
+        <v>1.931720668638357</v>
       </c>
     </row>
     <row r="3">
@@ -543,7 +543,7 @@
         <v>1.239889758575947</v>
       </c>
       <c r="F3" t="n">
-        <v>2.953359325571835</v>
+        <v>1.486570876490288</v>
       </c>
       <c r="G3" t="n">
         <v>1.212355103492718</v>
@@ -558,7 +558,7 @@
         <v>2.594210902604413</v>
       </c>
       <c r="K3" t="n">
-        <v>2.230793648659107</v>
+        <v>1.774554667157681</v>
       </c>
     </row>
     <row r="4">
@@ -578,7 +578,7 @@
         <v>3.473868903179205</v>
       </c>
       <c r="F4" t="n">
-        <v>3.777279631906095</v>
+        <v>3.619089232280891</v>
       </c>
       <c r="G4" t="n">
         <v>1.075063255536551</v>
@@ -593,7 +593,7 @@
         <v>1.960757881245542</v>
       </c>
       <c r="K4" t="n">
-        <v>1.93969075190823</v>
+        <v>1.60116207856829</v>
       </c>
     </row>
     <row r="5">
@@ -613,7 +613,7 @@
         <v>0.938654534349344</v>
       </c>
       <c r="F5" t="n">
-        <v>2.953359325571833</v>
+        <v>1.233928876218327</v>
       </c>
       <c r="G5" t="n">
         <v>1.210893091312481</v>
@@ -628,7 +628,7 @@
         <v>1.525057750975637</v>
       </c>
       <c r="K5" t="n">
-        <v>1.646847391502495</v>
+        <v>1.262763469482181</v>
       </c>
     </row>
     <row r="6">
@@ -648,7 +648,7 @@
         <v>0.7248606801997122</v>
       </c>
       <c r="F6" t="n">
-        <v>2.953359325571836</v>
+        <v>0.9823049001344488</v>
       </c>
       <c r="G6" t="n">
         <v>1.209984847847151</v>
@@ -663,7 +663,7 @@
         <v>1.52716259180392</v>
       </c>
       <c r="K6" t="n">
-        <v>1.668739007363945</v>
+        <v>1.279973487446525</v>
       </c>
     </row>
     <row r="7">
@@ -683,7 +683,7 @@
         <v>1.181586493633075</v>
       </c>
       <c r="F7" t="n">
-        <v>3.777279631906094</v>
+        <v>1.392601770540418</v>
       </c>
       <c r="G7" t="n">
         <v>1.074203496262546</v>
@@ -698,7 +698,7 @@
         <v>2.089103999035299</v>
       </c>
       <c r="K7" t="n">
-        <v>1.788909442203023</v>
+        <v>1.438220153790516</v>
       </c>
     </row>
     <row r="8">
@@ -718,7 +718,7 @@
         <v>0.7449034850928795</v>
       </c>
       <c r="F8" t="n">
-        <v>2.953359325571834</v>
+        <v>1.017997578999949</v>
       </c>
       <c r="G8" t="n">
         <v>1.208266822396189</v>
@@ -733,7 +733,7 @@
         <v>1.732208502183915</v>
       </c>
       <c r="K8" t="n">
-        <v>1.700551401900429</v>
+        <v>1.306575586663374</v>
       </c>
     </row>
     <row r="9">
@@ -753,7 +753,7 @@
         <v>0.7734660688444341</v>
       </c>
       <c r="F9" t="n">
-        <v>2.953359325571834</v>
+        <v>0.9193417331874425</v>
       </c>
       <c r="G9" t="n">
         <v>1.207495796356991</v>
@@ -768,7 +768,7 @@
         <v>1.781945169349529</v>
       </c>
       <c r="K9" t="n">
-        <v>1.691681735588474</v>
+        <v>1.303238997068369</v>
       </c>
     </row>
     <row r="10">
@@ -788,7 +788,7 @@
         <v>0.7296248096678344</v>
       </c>
       <c r="F10" t="n">
-        <v>2.953359325571833</v>
+        <v>0.9228100604296587</v>
       </c>
       <c r="G10" t="n">
         <v>1.206807832719729</v>
@@ -803,7 +803,7 @@
         <v>1.643567142013495</v>
       </c>
       <c r="K10" t="n">
-        <v>1.6870531869567</v>
+        <v>1.303522739277548</v>
       </c>
     </row>
     <row r="11">
@@ -823,7 +823,7 @@
         <v>0.929847020305707</v>
       </c>
       <c r="F11" t="n">
-        <v>3.777279631906095</v>
+        <v>1.149347150335248</v>
       </c>
       <c r="G11" t="n">
         <v>1.073400461998491</v>
@@ -838,7 +838,7 @@
         <v>1.844681550063179</v>
       </c>
       <c r="K11" t="n">
-        <v>1.7749306112228</v>
+        <v>1.42523552514246</v>
       </c>
     </row>
     <row r="12">
@@ -858,7 +858,7 @@
         <v>1.29355712309134</v>
       </c>
       <c r="F12" t="n">
-        <v>1.401967866115882</v>
+        <v>1.250137702019458</v>
       </c>
       <c r="G12" t="n">
         <v>2.270147657429868</v>
@@ -873,7 +873,7 @@
         <v>1.715717939514911</v>
       </c>
       <c r="K12" t="n">
-        <v>1.950960876780078</v>
+        <v>1.601997735848329</v>
       </c>
     </row>
     <row r="13">
@@ -893,7 +893,7 @@
         <v>2.369194362372474</v>
       </c>
       <c r="F13" t="n">
-        <v>0.7999390277312268</v>
+        <v>2.34864136949764</v>
       </c>
       <c r="G13" t="n">
         <v>3.062716945528508</v>
@@ -908,7 +908,7 @@
         <v>1.33706758191068</v>
       </c>
       <c r="K13" t="n">
-        <v>1.819000407277076</v>
+        <v>1.499226493434675</v>
       </c>
     </row>
     <row r="14">
@@ -928,7 +928,7 @@
         <v>6.226984032392564</v>
       </c>
       <c r="F14" t="n">
-        <v>9.054895014197431</v>
+        <v>6.173114231876883</v>
       </c>
       <c r="G14" t="n">
         <v>3.905806203603865</v>
@@ -943,7 +943,7 @@
         <v>5.637124946295703</v>
       </c>
       <c r="K14" t="n">
-        <v>5.734071476362839</v>
+        <v>5.640417840643222</v>
       </c>
     </row>
     <row r="15">
@@ -963,7 +963,7 @@
         <v>23.1121475027579</v>
       </c>
       <c r="F15" t="n">
-        <v>25.99871894680209</v>
+        <v>22.65061988648479</v>
       </c>
       <c r="G15" t="n">
         <v>18.00929787837195</v>
@@ -978,7 +978,7 @@
         <v>13.74946082406465</v>
       </c>
       <c r="K15" t="n">
-        <v>18.00500237850628</v>
+        <v>18.27065360367348</v>
       </c>
     </row>
     <row r="16">
@@ -998,7 +998,7 @@
         <v>5.404099587475494</v>
       </c>
       <c r="F16" t="n">
-        <v>0.7999390277312264</v>
+        <v>5.356462118557237</v>
       </c>
       <c r="G16" t="n">
         <v>3.05419614748985</v>
@@ -1013,7 +1013,7 @@
         <v>9.895269065787287</v>
       </c>
       <c r="K16" t="n">
-        <v>8.375835186681101</v>
+        <v>12.27082204778578</v>
       </c>
     </row>
     <row r="17">
@@ -1033,7 +1033,7 @@
         <v>18.70977284719968</v>
       </c>
       <c r="F17" t="n">
-        <v>0.7420894246121428</v>
+        <v>18.09385031192362</v>
       </c>
       <c r="G17" t="n">
         <v>4.908726407000762</v>
@@ -1048,7 +1048,7 @@
         <v>1.6057583227182</v>
       </c>
       <c r="K17" t="n">
-        <v>3.263949372709502</v>
+        <v>3.665214953816475</v>
       </c>
     </row>
     <row r="18">
@@ -1068,7 +1068,7 @@
         <v>4.071656435147918</v>
       </c>
       <c r="F18" t="n">
-        <v>0.7420894246121423</v>
+        <v>3.902683327859297</v>
       </c>
       <c r="G18" t="n">
         <v>4.906448829503312</v>
@@ -1083,7 +1083,7 @@
         <v>2.45521316539933</v>
       </c>
       <c r="K18" t="n">
-        <v>2.375325059849129</v>
+        <v>2.165901822506475</v>
       </c>
     </row>
     <row r="19">
@@ -1103,7 +1103,7 @@
         <v>3.437504934532319</v>
       </c>
       <c r="F19" t="n">
-        <v>1.924183610532008</v>
+        <v>3.264356045331446</v>
       </c>
       <c r="G19" t="n">
         <v>6.867104908099141</v>
@@ -1118,7 +1118,7 @@
         <v>3.211364490559203</v>
       </c>
       <c r="K19" t="n">
-        <v>2.675805090820443</v>
+        <v>3.143172942916446</v>
       </c>
     </row>
     <row r="20">
@@ -1138,7 +1138,7 @@
         <v>3.15390497787076</v>
       </c>
       <c r="F20" t="n">
-        <v>1.924183610532008</v>
+        <v>2.939759479724035</v>
       </c>
       <c r="G20" t="n">
         <v>6.864224774588729</v>
@@ -1153,7 +1153,7 @@
         <v>2.660586763748931</v>
       </c>
       <c r="K20" t="n">
-        <v>2.936485144773834</v>
+        <v>2.512401568977887</v>
       </c>
     </row>
     <row r="21">
@@ -1173,7 +1173,7 @@
         <v>0.901219436440404</v>
       </c>
       <c r="F21" t="n">
-        <v>0.7420894246121419</v>
+        <v>1.034162089900195</v>
       </c>
       <c r="G21" t="n">
         <v>4.899832795597596</v>
@@ -1188,7 +1188,7 @@
         <v>2.183669486298967</v>
       </c>
       <c r="K21" t="n">
-        <v>1.869076177355903</v>
+        <v>1.169697342286949</v>
       </c>
     </row>
     <row r="22">
@@ -1208,7 +1208,7 @@
         <v>3.096962819698118</v>
       </c>
       <c r="F22" t="n">
-        <v>2.147422685988766</v>
+        <v>3.146106440486252</v>
       </c>
       <c r="G22" t="n">
         <v>1.616030202044811</v>
@@ -1223,7 +1223,7 @@
         <v>1.374940234592161</v>
       </c>
       <c r="K22" t="n">
-        <v>1.395298584892969</v>
+        <v>1.565641890606473</v>
       </c>
     </row>
     <row r="23">
@@ -1243,7 +1243,7 @@
         <v>1.700602675297426</v>
       </c>
       <c r="F23" t="n">
-        <v>0.7999390277312268</v>
+        <v>1.813293355726139</v>
       </c>
       <c r="G23" t="n">
         <v>3.040700413117551</v>
@@ -1258,7 +1258,7 @@
         <v>2.029910122480708</v>
       </c>
       <c r="K23" t="n">
-        <v>1.425312474453537</v>
+        <v>1.149813814785394</v>
       </c>
     </row>
     <row r="24">
@@ -1278,7 +1278,7 @@
         <v>1.822802768202143</v>
       </c>
       <c r="F24" t="n">
-        <v>2.953359325571834</v>
+        <v>1.983541408887818</v>
       </c>
       <c r="G24" t="n">
         <v>1.199475397109882</v>
@@ -1293,7 +1293,7 @@
         <v>2.448133529151313</v>
       </c>
       <c r="K24" t="n">
-        <v>1.988700028216392</v>
+        <v>1.605174468710672</v>
       </c>
     </row>
     <row r="25">
@@ -1313,7 +1313,7 @@
         <v>1.037410490359387</v>
       </c>
       <c r="F25" t="n">
-        <v>1.40196786611588</v>
+        <v>1.255810196405068</v>
       </c>
       <c r="G25" t="n">
         <v>2.248012146681598</v>
@@ -1328,7 +1328,7 @@
         <v>1.442606730237687</v>
       </c>
       <c r="K25" t="n">
-        <v>1.508925258103195</v>
+        <v>1.173978629027736</v>
       </c>
     </row>
   </sheetData>
@@ -5277,7 +5277,7 @@
         <v>0.04</v>
       </c>
       <c r="C302" t="n">
-        <v>0</v>
+        <v>0.04166666666666666</v>
       </c>
     </row>
     <row r="303">
@@ -5290,7 +5290,7 @@
         <v>0.05</v>
       </c>
       <c r="C303" t="n">
-        <v>0</v>
+        <v>0.04166666666666666</v>
       </c>
     </row>
     <row r="304">
@@ -5303,7 +5303,7 @@
         <v>0.06</v>
       </c>
       <c r="C304" t="n">
-        <v>0</v>
+        <v>0.04166666666666666</v>
       </c>
     </row>
     <row r="305">
@@ -5316,7 +5316,7 @@
         <v>0.06999999999999999</v>
       </c>
       <c r="C305" t="n">
-        <v>0</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="306">
@@ -5329,7 +5329,7 @@
         <v>0.08</v>
       </c>
       <c r="C306" t="n">
-        <v>0</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="307">
@@ -5342,7 +5342,7 @@
         <v>0.09</v>
       </c>
       <c r="C307" t="n">
-        <v>0</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="308">
@@ -5355,7 +5355,7 @@
         <v>0.09999999999999999</v>
       </c>
       <c r="C308" t="n">
-        <v>0</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="309">
@@ -5368,7 +5368,7 @@
         <v>0.11</v>
       </c>
       <c r="C309" t="n">
-        <v>0</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="310">
@@ -5381,7 +5381,7 @@
         <v>0.12</v>
       </c>
       <c r="C310" t="n">
-        <v>0</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="311">
@@ -5394,7 +5394,7 @@
         <v>0.13</v>
       </c>
       <c r="C311" t="n">
-        <v>0.08333333333333333</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="312">
@@ -5407,7 +5407,7 @@
         <v>0.14</v>
       </c>
       <c r="C312" t="n">
-        <v>0.08333333333333333</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="313">
@@ -5420,7 +5420,7 @@
         <v>0.15</v>
       </c>
       <c r="C313" t="n">
-        <v>0.08333333333333333</v>
+        <v>0.2083333333333333</v>
       </c>
     </row>
     <row r="314">
@@ -5433,7 +5433,7 @@
         <v>0.16</v>
       </c>
       <c r="C314" t="n">
-        <v>0.08333333333333333</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="315">
@@ -5446,7 +5446,7 @@
         <v>0.17</v>
       </c>
       <c r="C315" t="n">
-        <v>0.08333333333333333</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="316">
@@ -5459,7 +5459,7 @@
         <v>0.18</v>
       </c>
       <c r="C316" t="n">
-        <v>0.08333333333333333</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="317">
@@ -5472,7 +5472,7 @@
         <v>0.19</v>
       </c>
       <c r="C317" t="n">
-        <v>0.08333333333333333</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="318">
@@ -5485,7 +5485,7 @@
         <v>0.2</v>
       </c>
       <c r="C318" t="n">
-        <v>0.08333333333333333</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="319">
@@ -5498,7 +5498,7 @@
         <v>0.21</v>
       </c>
       <c r="C319" t="n">
-        <v>0.08333333333333333</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="320">
@@ -5511,7 +5511,7 @@
         <v>0.22</v>
       </c>
       <c r="C320" t="n">
-        <v>0.08333333333333333</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="321">
@@ -5524,7 +5524,7 @@
         <v>0.23</v>
       </c>
       <c r="C321" t="n">
-        <v>0.08333333333333333</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="322">
@@ -5537,7 +5537,7 @@
         <v>0.24</v>
       </c>
       <c r="C322" t="n">
-        <v>0.08333333333333333</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="323">
@@ -5550,7 +5550,7 @@
         <v>0.25</v>
       </c>
       <c r="C323" t="n">
-        <v>0.08333333333333333</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="324">
@@ -5563,7 +5563,7 @@
         <v>0.26</v>
       </c>
       <c r="C324" t="n">
-        <v>0.08333333333333333</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="325">
@@ -5576,7 +5576,7 @@
         <v>0.27</v>
       </c>
       <c r="C325" t="n">
-        <v>0.08333333333333333</v>
+        <v>0.2916666666666667</v>
       </c>
     </row>
     <row r="326">
@@ -5589,7 +5589,7 @@
         <v>0.28</v>
       </c>
       <c r="C326" t="n">
-        <v>0.08333333333333333</v>
+        <v>0.2916666666666667</v>
       </c>
     </row>
     <row r="327">
@@ -5602,7 +5602,7 @@
         <v>0.29</v>
       </c>
       <c r="C327" t="n">
-        <v>0.08333333333333333</v>
+        <v>0.2916666666666667</v>
       </c>
     </row>
     <row r="328">
@@ -5615,7 +5615,7 @@
         <v>0.3</v>
       </c>
       <c r="C328" t="n">
-        <v>0.08333333333333333</v>
+        <v>0.2916666666666667</v>
       </c>
     </row>
     <row r="329">
@@ -5628,7 +5628,7 @@
         <v>0.31</v>
       </c>
       <c r="C329" t="n">
-        <v>0.08333333333333333</v>
+        <v>0.2916666666666667</v>
       </c>
     </row>
     <row r="330">
@@ -5641,7 +5641,7 @@
         <v>0.32</v>
       </c>
       <c r="C330" t="n">
-        <v>0.08333333333333333</v>
+        <v>0.2916666666666667</v>
       </c>
     </row>
     <row r="331">
@@ -5654,7 +5654,7 @@
         <v>0.33</v>
       </c>
       <c r="C331" t="n">
-        <v>0.25</v>
+        <v>0.2916666666666667</v>
       </c>
     </row>
     <row r="332">
@@ -5667,7 +5667,7 @@
         <v>0.34</v>
       </c>
       <c r="C332" t="n">
-        <v>0.25</v>
+        <v>0.2916666666666667</v>
       </c>
     </row>
     <row r="333">
@@ -5680,7 +5680,7 @@
         <v>0.35</v>
       </c>
       <c r="C333" t="n">
-        <v>0.25</v>
+        <v>0.2916666666666667</v>
       </c>
     </row>
     <row r="334">
@@ -5693,7 +5693,7 @@
         <v>0.36</v>
       </c>
       <c r="C334" t="n">
-        <v>0.25</v>
+        <v>0.2916666666666667</v>
       </c>
     </row>
     <row r="335">
@@ -5706,7 +5706,7 @@
         <v>0.37</v>
       </c>
       <c r="C335" t="n">
-        <v>0.25</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="336">
@@ -5719,7 +5719,7 @@
         <v>0.38</v>
       </c>
       <c r="C336" t="n">
-        <v>0.25</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="337">
@@ -5732,7 +5732,7 @@
         <v>0.39</v>
       </c>
       <c r="C337" t="n">
-        <v>0.25</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="338">
@@ -5745,7 +5745,7 @@
         <v>0.4</v>
       </c>
       <c r="C338" t="n">
-        <v>0.25</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="339">
@@ -5758,7 +5758,7 @@
         <v>0.41</v>
       </c>
       <c r="C339" t="n">
-        <v>0.25</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="340">
@@ -5771,7 +5771,7 @@
         <v>0.42</v>
       </c>
       <c r="C340" t="n">
-        <v>0.25</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="341">
@@ -5784,7 +5784,7 @@
         <v>0.43</v>
       </c>
       <c r="C341" t="n">
-        <v>0.25</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="342">
@@ -5797,7 +5797,7 @@
         <v>0.44</v>
       </c>
       <c r="C342" t="n">
-        <v>0.25</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="343">
@@ -5810,7 +5810,7 @@
         <v>0.45</v>
       </c>
       <c r="C343" t="n">
-        <v>0.25</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="344">
@@ -5823,7 +5823,7 @@
         <v>0.46</v>
       </c>
       <c r="C344" t="n">
-        <v>0.25</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="345">
@@ -5836,7 +5836,7 @@
         <v>0.47</v>
       </c>
       <c r="C345" t="n">
-        <v>0.25</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="346">
@@ -5849,7 +5849,7 @@
         <v>0.48</v>
       </c>
       <c r="C346" t="n">
-        <v>0.25</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="347">
@@ -5862,7 +5862,7 @@
         <v>0.49</v>
       </c>
       <c r="C347" t="n">
-        <v>0.25</v>
+        <v>0.4583333333333333</v>
       </c>
     </row>
     <row r="348">
@@ -5875,7 +5875,7 @@
         <v>0.5</v>
       </c>
       <c r="C348" t="n">
-        <v>0.25</v>
+        <v>0.4583333333333333</v>
       </c>
     </row>
     <row r="349">
@@ -5888,7 +5888,7 @@
         <v>0.51</v>
       </c>
       <c r="C349" t="n">
-        <v>0.25</v>
+        <v>0.4583333333333333</v>
       </c>
     </row>
     <row r="350">
@@ -5901,7 +5901,7 @@
         <v>0.52</v>
       </c>
       <c r="C350" t="n">
-        <v>0.25</v>
+        <v>0.4583333333333333</v>
       </c>
     </row>
     <row r="351">
@@ -5914,7 +5914,7 @@
         <v>0.53</v>
       </c>
       <c r="C351" t="n">
-        <v>0.25</v>
+        <v>0.4583333333333333</v>
       </c>
     </row>
     <row r="352">
@@ -5927,7 +5927,7 @@
         <v>0.54</v>
       </c>
       <c r="C352" t="n">
-        <v>0.25</v>
+        <v>0.4583333333333333</v>
       </c>
     </row>
     <row r="353">
@@ -5940,7 +5940,7 @@
         <v>0.55</v>
       </c>
       <c r="C353" t="n">
-        <v>0.25</v>
+        <v>0.4583333333333333</v>
       </c>
     </row>
     <row r="354">
@@ -5953,7 +5953,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="C354" t="n">
-        <v>0.25</v>
+        <v>0.4583333333333333</v>
       </c>
     </row>
     <row r="355">
@@ -5966,7 +5966,7 @@
         <v>0.5700000000000001</v>
       </c>
       <c r="C355" t="n">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="356">
@@ -5979,7 +5979,7 @@
         <v>0.5800000000000001</v>
       </c>
       <c r="C356" t="n">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="357">
@@ -5992,7 +5992,7 @@
         <v>0.59</v>
       </c>
       <c r="C357" t="n">
-        <v>0.25</v>
+        <v>0.5416666666666666</v>
       </c>
     </row>
     <row r="358">
@@ -6005,7 +6005,7 @@
         <v>0.6</v>
       </c>
       <c r="C358" t="n">
-        <v>0.25</v>
+        <v>0.5416666666666666</v>
       </c>
     </row>
     <row r="359">
@@ -6018,7 +6018,7 @@
         <v>0.61</v>
       </c>
       <c r="C359" t="n">
-        <v>0.25</v>
+        <v>0.5416666666666666</v>
       </c>
     </row>
     <row r="360">
@@ -6031,7 +6031,7 @@
         <v>0.62</v>
       </c>
       <c r="C360" t="n">
-        <v>0.25</v>
+        <v>0.5416666666666666</v>
       </c>
     </row>
     <row r="361">
@@ -6044,7 +6044,7 @@
         <v>0.63</v>
       </c>
       <c r="C361" t="n">
-        <v>0.25</v>
+        <v>0.5416666666666666</v>
       </c>
     </row>
     <row r="362">
@@ -6057,7 +6057,7 @@
         <v>0.64</v>
       </c>
       <c r="C362" t="n">
-        <v>0.25</v>
+        <v>0.5416666666666666</v>
       </c>
     </row>
     <row r="363">
@@ -6070,7 +6070,7 @@
         <v>0.65</v>
       </c>
       <c r="C363" t="n">
-        <v>0.25</v>
+        <v>0.5416666666666666</v>
       </c>
     </row>
     <row r="364">
@@ -6083,7 +6083,7 @@
         <v>0.66</v>
       </c>
       <c r="C364" t="n">
-        <v>0.25</v>
+        <v>0.5416666666666666</v>
       </c>
     </row>
     <row r="365">
@@ -6096,7 +6096,7 @@
         <v>0.67</v>
       </c>
       <c r="C365" t="n">
-        <v>0.25</v>
+        <v>0.5833333333333334</v>
       </c>
     </row>
     <row r="366">
@@ -6109,7 +6109,7 @@
         <v>0.68</v>
       </c>
       <c r="C366" t="n">
-        <v>0.25</v>
+        <v>0.5833333333333334</v>
       </c>
     </row>
     <row r="367">
@@ -6122,7 +6122,7 @@
         <v>0.6900000000000001</v>
       </c>
       <c r="C367" t="n">
-        <v>0.25</v>
+        <v>0.5833333333333334</v>
       </c>
     </row>
     <row r="368">
@@ -6135,7 +6135,7 @@
         <v>0.7000000000000001</v>
       </c>
       <c r="C368" t="n">
-        <v>0.25</v>
+        <v>0.625</v>
       </c>
     </row>
     <row r="369">
@@ -6148,7 +6148,7 @@
         <v>0.7100000000000001</v>
       </c>
       <c r="C369" t="n">
-        <v>0.25</v>
+        <v>0.625</v>
       </c>
     </row>
     <row r="370">
@@ -6161,7 +6161,7 @@
         <v>0.72</v>
       </c>
       <c r="C370" t="n">
-        <v>0.25</v>
+        <v>0.625</v>
       </c>
     </row>
     <row r="371">
@@ -6174,7 +6174,7 @@
         <v>0.73</v>
       </c>
       <c r="C371" t="n">
-        <v>0.25</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="372">
@@ -6187,7 +6187,7 @@
         <v>0.74</v>
       </c>
       <c r="C372" t="n">
-        <v>0.25</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="373">
@@ -6200,7 +6200,7 @@
         <v>0.75</v>
       </c>
       <c r="C373" t="n">
-        <v>0.375</v>
+        <v>0.7083333333333334</v>
       </c>
     </row>
     <row r="374">
@@ -6213,7 +6213,7 @@
         <v>0.76</v>
       </c>
       <c r="C374" t="n">
-        <v>0.375</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="375">
@@ -6226,7 +6226,7 @@
         <v>0.77</v>
       </c>
       <c r="C375" t="n">
-        <v>0.375</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="376">
@@ -6239,7 +6239,7 @@
         <v>0.78</v>
       </c>
       <c r="C376" t="n">
-        <v>0.375</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="377">
@@ -6252,7 +6252,7 @@
         <v>0.79</v>
       </c>
       <c r="C377" t="n">
-        <v>0.375</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="378">
@@ -6265,7 +6265,7 @@
         <v>0.8</v>
       </c>
       <c r="C378" t="n">
-        <v>0.375</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="379">
@@ -6278,7 +6278,7 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="C379" t="n">
-        <v>0.375</v>
+        <v>0.8333333333333334</v>
       </c>
     </row>
     <row r="380">
@@ -6291,7 +6291,7 @@
         <v>0.8200000000000001</v>
       </c>
       <c r="C380" t="n">
-        <v>0.375</v>
+        <v>0.8333333333333334</v>
       </c>
     </row>
     <row r="381">
@@ -6304,7 +6304,7 @@
         <v>0.8300000000000001</v>
       </c>
       <c r="C381" t="n">
-        <v>0.375</v>
+        <v>0.8333333333333334</v>
       </c>
     </row>
     <row r="382">
@@ -6317,7 +6317,7 @@
         <v>0.8400000000000001</v>
       </c>
       <c r="C382" t="n">
-        <v>0.375</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="383">
@@ -6330,7 +6330,7 @@
         <v>0.85</v>
       </c>
       <c r="C383" t="n">
-        <v>0.4583333333333333</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="384">
@@ -6343,7 +6343,7 @@
         <v>0.86</v>
       </c>
       <c r="C384" t="n">
-        <v>0.4583333333333333</v>
+        <v>0.9166666666666666</v>
       </c>
     </row>
     <row r="385">
@@ -6356,7 +6356,7 @@
         <v>0.87</v>
       </c>
       <c r="C385" t="n">
-        <v>0.4583333333333333</v>
+        <v>0.9166666666666666</v>
       </c>
     </row>
     <row r="386">
@@ -6369,7 +6369,7 @@
         <v>0.88</v>
       </c>
       <c r="C386" t="n">
-        <v>0.4583333333333333</v>
+        <v>0.9166666666666666</v>
       </c>
     </row>
     <row r="387">
@@ -6382,7 +6382,7 @@
         <v>0.89</v>
       </c>
       <c r="C387" t="n">
-        <v>0.4583333333333333</v>
+        <v>0.9166666666666666</v>
       </c>
     </row>
     <row r="388">
@@ -6395,7 +6395,7 @@
         <v>0.9</v>
       </c>
       <c r="C388" t="n">
-        <v>0.5</v>
+        <v>0.9583333333333334</v>
       </c>
     </row>
     <row r="389">
@@ -6408,7 +6408,7 @@
         <v>0.91</v>
       </c>
       <c r="C389" t="n">
-        <v>0.7916666666666666</v>
+        <v>0.9583333333333334</v>
       </c>
     </row>
     <row r="390">
@@ -6421,7 +6421,7 @@
         <v>0.92</v>
       </c>
       <c r="C390" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.9583333333333334</v>
       </c>
     </row>
     <row r="391">
@@ -6434,7 +6434,7 @@
         <v>0.93</v>
       </c>
       <c r="C391" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.9583333333333334</v>
       </c>
     </row>
     <row r="392">
@@ -6447,7 +6447,7 @@
         <v>0.9400000000000001</v>
       </c>
       <c r="C392" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.9583333333333334</v>
       </c>
     </row>
     <row r="393">
@@ -6460,7 +6460,7 @@
         <v>0.9500000000000001</v>
       </c>
       <c r="C393" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.9583333333333334</v>
       </c>
     </row>
     <row r="394">
@@ -6473,7 +6473,7 @@
         <v>0.9600000000000001</v>
       </c>
       <c r="C394" t="n">
-        <v>0.9583333333333334</v>
+        <v>1</v>
       </c>
     </row>
     <row r="395">
@@ -6486,7 +6486,7 @@
         <v>0.97</v>
       </c>
       <c r="C395" t="n">
-        <v>0.9583333333333334</v>
+        <v>1</v>
       </c>
     </row>
     <row r="396">
@@ -6499,7 +6499,7 @@
         <v>0.98</v>
       </c>
       <c r="C396" t="n">
-        <v>0.9583333333333334</v>
+        <v>1</v>
       </c>
     </row>
     <row r="397">
@@ -11712,7 +11712,7 @@
         <v>0.04</v>
       </c>
       <c r="C797" t="n">
-        <v>0</v>
+        <v>0.04166666666666666</v>
       </c>
     </row>
     <row r="798">
@@ -11725,7 +11725,7 @@
         <v>0.05</v>
       </c>
       <c r="C798" t="n">
-        <v>0</v>
+        <v>0.04166666666666666</v>
       </c>
     </row>
     <row r="799">
@@ -11816,7 +11816,7 @@
         <v>0.12</v>
       </c>
       <c r="C805" t="n">
-        <v>0.04166666666666666</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="806">
@@ -11829,7 +11829,7 @@
         <v>0.13</v>
       </c>
       <c r="C806" t="n">
-        <v>0.04166666666666666</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="807">
@@ -11842,7 +11842,7 @@
         <v>0.14</v>
       </c>
       <c r="C807" t="n">
-        <v>0.04166666666666666</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="808">
@@ -11855,7 +11855,7 @@
         <v>0.15</v>
       </c>
       <c r="C808" t="n">
-        <v>0.04166666666666666</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="809">
@@ -11868,7 +11868,7 @@
         <v>0.16</v>
       </c>
       <c r="C809" t="n">
-        <v>0.04166666666666666</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="810">
@@ -11881,7 +11881,7 @@
         <v>0.17</v>
       </c>
       <c r="C810" t="n">
-        <v>0.04166666666666666</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="811">
@@ -11894,7 +11894,7 @@
         <v>0.18</v>
       </c>
       <c r="C811" t="n">
-        <v>0.04166666666666666</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="812">
@@ -11907,7 +11907,7 @@
         <v>0.19</v>
       </c>
       <c r="C812" t="n">
-        <v>0.04166666666666666</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="813">
@@ -11920,7 +11920,7 @@
         <v>0.2</v>
       </c>
       <c r="C813" t="n">
-        <v>0.04166666666666666</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="814">
@@ -11933,7 +11933,7 @@
         <v>0.21</v>
       </c>
       <c r="C814" t="n">
-        <v>0.04166666666666666</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="815">
@@ -11946,7 +11946,7 @@
         <v>0.22</v>
       </c>
       <c r="C815" t="n">
-        <v>0.04166666666666666</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="816">
@@ -11959,7 +11959,7 @@
         <v>0.23</v>
       </c>
       <c r="C816" t="n">
-        <v>0.08333333333333333</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="817">
@@ -11972,7 +11972,7 @@
         <v>0.24</v>
       </c>
       <c r="C817" t="n">
-        <v>0.125</v>
+        <v>0.2083333333333333</v>
       </c>
     </row>
     <row r="818">
@@ -11985,7 +11985,7 @@
         <v>0.25</v>
       </c>
       <c r="C818" t="n">
-        <v>0.125</v>
+        <v>0.2083333333333333</v>
       </c>
     </row>
     <row r="819">
@@ -11998,7 +11998,7 @@
         <v>0.26</v>
       </c>
       <c r="C819" t="n">
-        <v>0.1666666666666667</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="820">
@@ -12011,7 +12011,7 @@
         <v>0.27</v>
       </c>
       <c r="C820" t="n">
-        <v>0.1666666666666667</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="821">
@@ -12024,7 +12024,7 @@
         <v>0.28</v>
       </c>
       <c r="C821" t="n">
-        <v>0.1666666666666667</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="822">
@@ -12037,7 +12037,7 @@
         <v>0.29</v>
       </c>
       <c r="C822" t="n">
-        <v>0.1666666666666667</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="823">
@@ -12050,7 +12050,7 @@
         <v>0.3</v>
       </c>
       <c r="C823" t="n">
-        <v>0.1666666666666667</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="824">
@@ -12063,7 +12063,7 @@
         <v>0.31</v>
       </c>
       <c r="C824" t="n">
-        <v>0.1666666666666667</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="825">
@@ -12076,7 +12076,7 @@
         <v>0.32</v>
       </c>
       <c r="C825" t="n">
-        <v>0.1666666666666667</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="826">
@@ -12089,7 +12089,7 @@
         <v>0.33</v>
       </c>
       <c r="C826" t="n">
-        <v>0.2916666666666667</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="827">
@@ -12102,7 +12102,7 @@
         <v>0.34</v>
       </c>
       <c r="C827" t="n">
-        <v>0.2916666666666667</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="828">
@@ -12128,7 +12128,7 @@
         <v>0.36</v>
       </c>
       <c r="C829" t="n">
-        <v>0.2916666666666667</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="830">
@@ -12141,7 +12141,7 @@
         <v>0.37</v>
       </c>
       <c r="C830" t="n">
-        <v>0.2916666666666667</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="831">
@@ -12154,7 +12154,7 @@
         <v>0.38</v>
       </c>
       <c r="C831" t="n">
-        <v>0.2916666666666667</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="832">
@@ -12167,7 +12167,7 @@
         <v>0.39</v>
       </c>
       <c r="C832" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="833">
@@ -12232,7 +12232,7 @@
         <v>0.44</v>
       </c>
       <c r="C837" t="n">
-        <v>0.375</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="838">
@@ -12245,7 +12245,7 @@
         <v>0.45</v>
       </c>
       <c r="C838" t="n">
-        <v>0.375</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="839">
@@ -12258,7 +12258,7 @@
         <v>0.46</v>
       </c>
       <c r="C839" t="n">
-        <v>0.375</v>
+        <v>0.4583333333333333</v>
       </c>
     </row>
     <row r="840">
@@ -12271,7 +12271,7 @@
         <v>0.47</v>
       </c>
       <c r="C840" t="n">
-        <v>0.375</v>
+        <v>0.4583333333333333</v>
       </c>
     </row>
     <row r="841">
@@ -12310,7 +12310,7 @@
         <v>0.5</v>
       </c>
       <c r="C843" t="n">
-        <v>0.5</v>
+        <v>0.4583333333333333</v>
       </c>
     </row>
     <row r="844">
@@ -12336,7 +12336,7 @@
         <v>0.52</v>
       </c>
       <c r="C845" t="n">
-        <v>0.5833333333333334</v>
+        <v>0.5416666666666666</v>
       </c>
     </row>
     <row r="846">
@@ -12362,7 +12362,7 @@
         <v>0.54</v>
       </c>
       <c r="C847" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.625</v>
       </c>
     </row>
     <row r="848">
@@ -12388,7 +12388,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="C849" t="n">
-        <v>0.7083333333333334</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="850">
@@ -12401,7 +12401,7 @@
         <v>0.5700000000000001</v>
       </c>
       <c r="C850" t="n">
-        <v>0.7083333333333334</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="851">
@@ -12414,7 +12414,7 @@
         <v>0.5800000000000001</v>
       </c>
       <c r="C851" t="n">
-        <v>0.75</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="852">
@@ -12427,7 +12427,7 @@
         <v>0.59</v>
       </c>
       <c r="C852" t="n">
-        <v>0.7916666666666666</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="853">
@@ -12440,7 +12440,7 @@
         <v>0.6</v>
       </c>
       <c r="C853" t="n">
-        <v>0.7916666666666666</v>
+        <v>0.7083333333333334</v>
       </c>
     </row>
     <row r="854">
@@ -12453,7 +12453,7 @@
         <v>0.61</v>
       </c>
       <c r="C854" t="n">
-        <v>0.7916666666666666</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="855">
@@ -12466,7 +12466,7 @@
         <v>0.62</v>
       </c>
       <c r="C855" t="n">
-        <v>0.7916666666666666</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="856">
@@ -12479,7 +12479,7 @@
         <v>0.63</v>
       </c>
       <c r="C856" t="n">
-        <v>0.7916666666666666</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="857">
@@ -12492,7 +12492,7 @@
         <v>0.64</v>
       </c>
       <c r="C857" t="n">
-        <v>0.7916666666666666</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="858">
@@ -12505,7 +12505,7 @@
         <v>0.65</v>
       </c>
       <c r="C858" t="n">
-        <v>0.7916666666666666</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="859">
@@ -12518,7 +12518,7 @@
         <v>0.66</v>
       </c>
       <c r="C859" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="860">
@@ -12531,7 +12531,7 @@
         <v>0.67</v>
       </c>
       <c r="C860" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.7916666666666666</v>
       </c>
     </row>
     <row r="861">
@@ -12544,7 +12544,7 @@
         <v>0.68</v>
       </c>
       <c r="C861" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.7916666666666666</v>
       </c>
     </row>
     <row r="862">
@@ -12557,7 +12557,7 @@
         <v>0.6900000000000001</v>
       </c>
       <c r="C862" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.7916666666666666</v>
       </c>
     </row>
     <row r="863">
@@ -12570,7 +12570,7 @@
         <v>0.7000000000000001</v>
       </c>
       <c r="C863" t="n">
-        <v>0.875</v>
+        <v>0.7916666666666666</v>
       </c>
     </row>
     <row r="864">
@@ -12596,7 +12596,7 @@
         <v>0.72</v>
       </c>
       <c r="C865" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="866">
@@ -12830,7 +12830,7 @@
         <v>0.9</v>
       </c>
       <c r="C883" t="n">
-        <v>0.9583333333333334</v>
+        <v>0.9166666666666666</v>
       </c>
     </row>
     <row r="884">
@@ -12843,7 +12843,7 @@
         <v>0.91</v>
       </c>
       <c r="C884" t="n">
-        <v>0.9583333333333334</v>
+        <v>0.9166666666666666</v>
       </c>
     </row>
     <row r="885">

--- a/codigo_final_organizado/Aplicaciones/Aplicaciones_puras/Resultados_Electricity_Final/electricity_serie_0_resultados_full.xlsx
+++ b/codigo_final_organizado/Aplicaciones/Aplicaciones_puras/Resultados_Electricity_Final/electricity_serie_0_resultados_full.xlsx
@@ -523,7 +523,7 @@
         <v>2.925520793545424</v>
       </c>
       <c r="K2" t="n">
-        <v>1.931720668638357</v>
+        <v>2.971367411029733</v>
       </c>
     </row>
     <row r="3">
@@ -558,7 +558,7 @@
         <v>2.594210902604413</v>
       </c>
       <c r="K3" t="n">
-        <v>1.774554667157681</v>
+        <v>1.428374241687688</v>
       </c>
     </row>
     <row r="4">
@@ -593,7 +593,7 @@
         <v>1.960757881245542</v>
       </c>
       <c r="K4" t="n">
-        <v>1.60116207856829</v>
+        <v>1.386822352304085</v>
       </c>
     </row>
     <row r="5">
@@ -628,7 +628,7 @@
         <v>1.525057750975637</v>
       </c>
       <c r="K5" t="n">
-        <v>1.262763469482181</v>
+        <v>1.441171415596667</v>
       </c>
     </row>
     <row r="6">
@@ -663,7 +663,7 @@
         <v>1.52716259180392</v>
       </c>
       <c r="K6" t="n">
-        <v>1.279973487446525</v>
+        <v>1.425202838528521</v>
       </c>
     </row>
     <row r="7">
@@ -698,7 +698,7 @@
         <v>2.089103999035299</v>
       </c>
       <c r="K7" t="n">
-        <v>1.438220153790516</v>
+        <v>1.41302789838312</v>
       </c>
     </row>
     <row r="8">
@@ -733,7 +733,7 @@
         <v>1.732208502183915</v>
       </c>
       <c r="K8" t="n">
-        <v>1.306575586663374</v>
+        <v>1.522814921916877</v>
       </c>
     </row>
     <row r="9">
@@ -768,7 +768,7 @@
         <v>1.781945169349529</v>
       </c>
       <c r="K9" t="n">
-        <v>1.303238997068369</v>
+        <v>1.463337442385869</v>
       </c>
     </row>
     <row r="10">
@@ -803,7 +803,7 @@
         <v>1.643567142013495</v>
       </c>
       <c r="K10" t="n">
-        <v>1.303522739277548</v>
+        <v>1.460436867663853</v>
       </c>
     </row>
     <row r="11">
@@ -838,7 +838,7 @@
         <v>1.844681550063179</v>
       </c>
       <c r="K11" t="n">
-        <v>1.42523552514246</v>
+        <v>1.418382811449111</v>
       </c>
     </row>
     <row r="12">
@@ -873,7 +873,7 @@
         <v>1.715717939514911</v>
       </c>
       <c r="K12" t="n">
-        <v>1.601997735848329</v>
+        <v>2.140396829038437</v>
       </c>
     </row>
     <row r="13">
@@ -908,7 +908,7 @@
         <v>1.33706758191068</v>
       </c>
       <c r="K13" t="n">
-        <v>1.499226493434675</v>
+        <v>2.045216494249868</v>
       </c>
     </row>
     <row r="14">
@@ -943,7 +943,7 @@
         <v>5.637124946295703</v>
       </c>
       <c r="K14" t="n">
-        <v>5.640417840643222</v>
+        <v>4.456285244873776</v>
       </c>
     </row>
     <row r="15">
@@ -978,7 +978,7 @@
         <v>13.74946082406465</v>
       </c>
       <c r="K15" t="n">
-        <v>18.27065360367348</v>
+        <v>16.61021658269966</v>
       </c>
     </row>
     <row r="16">
@@ -1013,7 +1013,7 @@
         <v>9.895269065787287</v>
       </c>
       <c r="K16" t="n">
-        <v>12.27082204778578</v>
+        <v>12.5518198818007</v>
       </c>
     </row>
     <row r="17">
@@ -1048,7 +1048,7 @@
         <v>1.6057583227182</v>
       </c>
       <c r="K17" t="n">
-        <v>3.665214953816475</v>
+        <v>3.82894490807585</v>
       </c>
     </row>
     <row r="18">
@@ -1083,7 +1083,7 @@
         <v>2.45521316539933</v>
       </c>
       <c r="K18" t="n">
-        <v>2.165901822506475</v>
+        <v>2.712070421894971</v>
       </c>
     </row>
     <row r="19">
@@ -1118,7 +1118,7 @@
         <v>3.211364490559203</v>
       </c>
       <c r="K19" t="n">
-        <v>3.143172942916446</v>
+        <v>3.901017965082687</v>
       </c>
     </row>
     <row r="20">
@@ -1153,7 +1153,7 @@
         <v>2.660586763748931</v>
       </c>
       <c r="K20" t="n">
-        <v>2.512401568977887</v>
+        <v>3.082878963292051</v>
       </c>
     </row>
     <row r="21">
@@ -1188,7 +1188,7 @@
         <v>2.183669486298967</v>
       </c>
       <c r="K21" t="n">
-        <v>1.169697342286949</v>
+        <v>1.635588596208591</v>
       </c>
     </row>
     <row r="22">
@@ -1223,7 +1223,7 @@
         <v>1.374940234592161</v>
       </c>
       <c r="K22" t="n">
-        <v>1.565641890606473</v>
+        <v>1.250560236414436</v>
       </c>
     </row>
     <row r="23">
@@ -1258,7 +1258,7 @@
         <v>2.029910122480708</v>
       </c>
       <c r="K23" t="n">
-        <v>1.149813814785394</v>
+        <v>1.742955556586229</v>
       </c>
     </row>
     <row r="24">
@@ -1293,7 +1293,7 @@
         <v>2.448133529151313</v>
       </c>
       <c r="K24" t="n">
-        <v>1.605174468710672</v>
+        <v>1.312117079435964</v>
       </c>
     </row>
     <row r="25">
@@ -1328,7 +1328,7 @@
         <v>1.442606730237687</v>
       </c>
       <c r="K25" t="n">
-        <v>1.173978629027736</v>
+        <v>1.666004739418166</v>
       </c>
     </row>
   </sheetData>
@@ -11751,7 +11751,7 @@
         <v>0.06999999999999999</v>
       </c>
       <c r="C800" t="n">
-        <v>0.04166666666666666</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="801">
@@ -11764,7 +11764,7 @@
         <v>0.08</v>
       </c>
       <c r="C801" t="n">
-        <v>0.04166666666666666</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="802">
@@ -11777,7 +11777,7 @@
         <v>0.09</v>
       </c>
       <c r="C802" t="n">
-        <v>0.04166666666666666</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="803">
@@ -11790,7 +11790,7 @@
         <v>0.09999999999999999</v>
       </c>
       <c r="C803" t="n">
-        <v>0.04166666666666666</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="804">
@@ -11803,7 +11803,7 @@
         <v>0.11</v>
       </c>
       <c r="C804" t="n">
-        <v>0.04166666666666666</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="805">
@@ -11816,7 +11816,7 @@
         <v>0.12</v>
       </c>
       <c r="C805" t="n">
-        <v>0.08333333333333333</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="806">
@@ -11829,7 +11829,7 @@
         <v>0.13</v>
       </c>
       <c r="C806" t="n">
-        <v>0.08333333333333333</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="807">
@@ -11842,7 +11842,7 @@
         <v>0.14</v>
       </c>
       <c r="C807" t="n">
-        <v>0.125</v>
+        <v>0.2083333333333333</v>
       </c>
     </row>
     <row r="808">
@@ -11855,7 +11855,7 @@
         <v>0.15</v>
       </c>
       <c r="C808" t="n">
-        <v>0.125</v>
+        <v>0.2083333333333333</v>
       </c>
     </row>
     <row r="809">
@@ -11868,7 +11868,7 @@
         <v>0.16</v>
       </c>
       <c r="C809" t="n">
-        <v>0.1666666666666667</v>
+        <v>0.2083333333333333</v>
       </c>
     </row>
     <row r="810">
@@ -11881,7 +11881,7 @@
         <v>0.17</v>
       </c>
       <c r="C810" t="n">
-        <v>0.1666666666666667</v>
+        <v>0.2083333333333333</v>
       </c>
     </row>
     <row r="811">
@@ -11894,7 +11894,7 @@
         <v>0.18</v>
       </c>
       <c r="C811" t="n">
-        <v>0.1666666666666667</v>
+        <v>0.2083333333333333</v>
       </c>
     </row>
     <row r="812">
@@ -11907,7 +11907,7 @@
         <v>0.19</v>
       </c>
       <c r="C812" t="n">
-        <v>0.1666666666666667</v>
+        <v>0.2083333333333333</v>
       </c>
     </row>
     <row r="813">
@@ -11920,7 +11920,7 @@
         <v>0.2</v>
       </c>
       <c r="C813" t="n">
-        <v>0.1666666666666667</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="814">
@@ -11933,7 +11933,7 @@
         <v>0.21</v>
       </c>
       <c r="C814" t="n">
-        <v>0.1666666666666667</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="815">
@@ -11946,7 +11946,7 @@
         <v>0.22</v>
       </c>
       <c r="C815" t="n">
-        <v>0.1666666666666667</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="816">
@@ -11959,7 +11959,7 @@
         <v>0.23</v>
       </c>
       <c r="C816" t="n">
-        <v>0.1666666666666667</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="817">
@@ -11972,7 +11972,7 @@
         <v>0.24</v>
       </c>
       <c r="C817" t="n">
-        <v>0.2083333333333333</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="818">
@@ -11985,7 +11985,7 @@
         <v>0.25</v>
       </c>
       <c r="C818" t="n">
-        <v>0.2083333333333333</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="819">
@@ -12024,7 +12024,7 @@
         <v>0.28</v>
       </c>
       <c r="C821" t="n">
-        <v>0.25</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="822">
@@ -12037,7 +12037,7 @@
         <v>0.29</v>
       </c>
       <c r="C822" t="n">
-        <v>0.25</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="823">
@@ -12050,7 +12050,7 @@
         <v>0.3</v>
       </c>
       <c r="C823" t="n">
-        <v>0.25</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="824">
@@ -12063,7 +12063,7 @@
         <v>0.31</v>
       </c>
       <c r="C824" t="n">
-        <v>0.25</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="825">
@@ -12076,7 +12076,7 @@
         <v>0.32</v>
       </c>
       <c r="C825" t="n">
-        <v>0.25</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="826">
@@ -12089,7 +12089,7 @@
         <v>0.33</v>
       </c>
       <c r="C826" t="n">
-        <v>0.25</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="827">
@@ -12102,7 +12102,7 @@
         <v>0.34</v>
       </c>
       <c r="C827" t="n">
-        <v>0.25</v>
+        <v>0.4583333333333333</v>
       </c>
     </row>
     <row r="828">
@@ -12115,7 +12115,7 @@
         <v>0.35</v>
       </c>
       <c r="C828" t="n">
-        <v>0.2916666666666667</v>
+        <v>0.4583333333333333</v>
       </c>
     </row>
     <row r="829">
@@ -12128,7 +12128,7 @@
         <v>0.36</v>
       </c>
       <c r="C829" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.4583333333333333</v>
       </c>
     </row>
     <row r="830">
@@ -12141,7 +12141,7 @@
         <v>0.37</v>
       </c>
       <c r="C830" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.4583333333333333</v>
       </c>
     </row>
     <row r="831">
@@ -12154,7 +12154,7 @@
         <v>0.38</v>
       </c>
       <c r="C831" t="n">
-        <v>0.375</v>
+        <v>0.4583333333333333</v>
       </c>
     </row>
     <row r="832">
@@ -12167,7 +12167,7 @@
         <v>0.39</v>
       </c>
       <c r="C832" t="n">
-        <v>0.375</v>
+        <v>0.4583333333333333</v>
       </c>
     </row>
     <row r="833">
@@ -12180,7 +12180,7 @@
         <v>0.4</v>
       </c>
       <c r="C833" t="n">
-        <v>0.375</v>
+        <v>0.4583333333333333</v>
       </c>
     </row>
     <row r="834">
@@ -12193,7 +12193,7 @@
         <v>0.41</v>
       </c>
       <c r="C834" t="n">
-        <v>0.375</v>
+        <v>0.4583333333333333</v>
       </c>
     </row>
     <row r="835">
@@ -12206,7 +12206,7 @@
         <v>0.42</v>
       </c>
       <c r="C835" t="n">
-        <v>0.375</v>
+        <v>0.4583333333333333</v>
       </c>
     </row>
     <row r="836">
@@ -12219,7 +12219,7 @@
         <v>0.43</v>
       </c>
       <c r="C836" t="n">
-        <v>0.375</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="837">
@@ -12232,7 +12232,7 @@
         <v>0.44</v>
       </c>
       <c r="C837" t="n">
-        <v>0.4166666666666667</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="838">
@@ -12245,7 +12245,7 @@
         <v>0.45</v>
       </c>
       <c r="C838" t="n">
-        <v>0.4166666666666667</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="839">
@@ -12258,7 +12258,7 @@
         <v>0.46</v>
       </c>
       <c r="C839" t="n">
-        <v>0.4583333333333333</v>
+        <v>0.625</v>
       </c>
     </row>
     <row r="840">
@@ -12271,7 +12271,7 @@
         <v>0.47</v>
       </c>
       <c r="C840" t="n">
-        <v>0.4583333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="841">
@@ -12284,7 +12284,7 @@
         <v>0.48</v>
       </c>
       <c r="C841" t="n">
-        <v>0.4583333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="842">
@@ -12297,7 +12297,7 @@
         <v>0.49</v>
       </c>
       <c r="C842" t="n">
-        <v>0.4583333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="843">
@@ -12310,7 +12310,7 @@
         <v>0.5</v>
       </c>
       <c r="C843" t="n">
-        <v>0.4583333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="844">
@@ -12323,7 +12323,7 @@
         <v>0.51</v>
       </c>
       <c r="C844" t="n">
-        <v>0.5</v>
+        <v>0.7083333333333334</v>
       </c>
     </row>
     <row r="845">
@@ -12336,7 +12336,7 @@
         <v>0.52</v>
       </c>
       <c r="C845" t="n">
-        <v>0.5416666666666666</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="846">
@@ -12349,7 +12349,7 @@
         <v>0.53</v>
       </c>
       <c r="C846" t="n">
-        <v>0.5833333333333334</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="847">
@@ -12362,7 +12362,7 @@
         <v>0.54</v>
       </c>
       <c r="C847" t="n">
-        <v>0.625</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="848">
@@ -12375,7 +12375,7 @@
         <v>0.55</v>
       </c>
       <c r="C848" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="849">
@@ -12388,7 +12388,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="C849" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.7916666666666666</v>
       </c>
     </row>
     <row r="850">
@@ -12401,7 +12401,7 @@
         <v>0.5700000000000001</v>
       </c>
       <c r="C850" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.7916666666666666</v>
       </c>
     </row>
     <row r="851">
@@ -12414,7 +12414,7 @@
         <v>0.5800000000000001</v>
       </c>
       <c r="C851" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="852">
@@ -12427,7 +12427,7 @@
         <v>0.59</v>
       </c>
       <c r="C852" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="853">
@@ -12440,7 +12440,7 @@
         <v>0.6</v>
       </c>
       <c r="C853" t="n">
-        <v>0.7083333333333334</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="854">
@@ -12453,7 +12453,7 @@
         <v>0.61</v>
       </c>
       <c r="C854" t="n">
-        <v>0.75</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="855">
@@ -12466,7 +12466,7 @@
         <v>0.62</v>
       </c>
       <c r="C855" t="n">
-        <v>0.75</v>
+        <v>0.9166666666666666</v>
       </c>
     </row>
     <row r="856">
@@ -12479,7 +12479,7 @@
         <v>0.63</v>
       </c>
       <c r="C856" t="n">
-        <v>0.75</v>
+        <v>0.9166666666666666</v>
       </c>
     </row>
     <row r="857">
@@ -12492,7 +12492,7 @@
         <v>0.64</v>
       </c>
       <c r="C857" t="n">
-        <v>0.75</v>
+        <v>0.9166666666666666</v>
       </c>
     </row>
     <row r="858">
@@ -12505,7 +12505,7 @@
         <v>0.65</v>
       </c>
       <c r="C858" t="n">
-        <v>0.75</v>
+        <v>0.9166666666666666</v>
       </c>
     </row>
     <row r="859">
@@ -12518,7 +12518,7 @@
         <v>0.66</v>
       </c>
       <c r="C859" t="n">
-        <v>0.75</v>
+        <v>0.9166666666666666</v>
       </c>
     </row>
     <row r="860">
@@ -12531,7 +12531,7 @@
         <v>0.67</v>
       </c>
       <c r="C860" t="n">
-        <v>0.7916666666666666</v>
+        <v>0.9166666666666666</v>
       </c>
     </row>
     <row r="861">
@@ -12544,7 +12544,7 @@
         <v>0.68</v>
       </c>
       <c r="C861" t="n">
-        <v>0.7916666666666666</v>
+        <v>0.9166666666666666</v>
       </c>
     </row>
     <row r="862">
@@ -12557,7 +12557,7 @@
         <v>0.6900000000000001</v>
       </c>
       <c r="C862" t="n">
-        <v>0.7916666666666666</v>
+        <v>0.9166666666666666</v>
       </c>
     </row>
     <row r="863">
@@ -12570,7 +12570,7 @@
         <v>0.7000000000000001</v>
       </c>
       <c r="C863" t="n">
-        <v>0.7916666666666666</v>
+        <v>0.9166666666666666</v>
       </c>
     </row>
     <row r="864">
@@ -12583,7 +12583,7 @@
         <v>0.7100000000000001</v>
       </c>
       <c r="C864" t="n">
-        <v>0.875</v>
+        <v>0.9166666666666666</v>
       </c>
     </row>
     <row r="865">
@@ -12596,7 +12596,7 @@
         <v>0.72</v>
       </c>
       <c r="C865" t="n">
-        <v>0.875</v>
+        <v>0.9166666666666666</v>
       </c>
     </row>
     <row r="866">
@@ -12791,7 +12791,7 @@
         <v>0.87</v>
       </c>
       <c r="C880" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.9583333333333334</v>
       </c>
     </row>
     <row r="881">
@@ -12804,7 +12804,7 @@
         <v>0.88</v>
       </c>
       <c r="C881" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.9583333333333334</v>
       </c>
     </row>
     <row r="882">
@@ -12817,7 +12817,7 @@
         <v>0.89</v>
       </c>
       <c r="C882" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.9583333333333334</v>
       </c>
     </row>
     <row r="883">
@@ -12830,7 +12830,7 @@
         <v>0.9</v>
       </c>
       <c r="C883" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.9583333333333334</v>
       </c>
     </row>
     <row r="884">
@@ -12843,7 +12843,7 @@
         <v>0.91</v>
       </c>
       <c r="C884" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.9583333333333334</v>
       </c>
     </row>
     <row r="885">
